--- a/EDA_Entrega/data/correlation_age_life_satisfaction.xlsx
+++ b/EDA_Entrega/data/correlation_age_life_satisfaction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F501"/>
+  <dimension ref="A1:G501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>P_Value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Regression_Coeff</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Intercept</t>
         </is>
@@ -482,12 +487,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.6680251299964367</v>
+        <v>-0.6680251299963964</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>-18423690.32812378</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>1573597609.810719</v>
       </c>
     </row>
@@ -508,12 +516,15 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.6680251267245424</v>
+        <v>-0.6680251267245102</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>-18423.69034624259</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>1573597.595001464</v>
       </c>
     </row>
@@ -534,12 +545,15 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.1463663495908834</v>
+        <v>-0.146366349590893</v>
       </c>
       <c r="E4" t="n">
+        <v>5.829629279659559e-206</v>
+      </c>
+      <c r="F4" t="n">
         <v>-1.470860778332163</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>291.0889904949584</v>
       </c>
     </row>
@@ -560,12 +574,15 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.04849681420622861</v>
+        <v>0.04849681420622513</v>
       </c>
       <c r="E5" t="n">
+        <v>2.995707785472245e-21</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.0003005072619166459</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.03365284369824759</v>
       </c>
     </row>
@@ -586,12 +603,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.04841675793578826</v>
+        <v>0.04841675793579519</v>
       </c>
       <c r="E6" t="n">
+        <v>3.478737735568931e-21</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.0007818638457035053</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.156378632347618</v>
       </c>
     </row>
@@ -612,12 +632,15 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.1339619246520133</v>
+        <v>-0.1339619246520021</v>
       </c>
       <c r="E7" t="n">
+        <v>9.013011283198013e-156</v>
+      </c>
+      <c r="F7" t="n">
         <v>-0.004319131022018182</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>4.266570043407159</v>
       </c>
     </row>
@@ -638,12 +661,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.01255833197520427</v>
+        <v>-0.01255833197520442</v>
       </c>
       <c r="E8" t="n">
+        <v>0.01312203819718288</v>
+      </c>
+      <c r="F8" t="n">
         <v>-0.03729344492441587</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>82.85279821091231</v>
       </c>
     </row>
@@ -664,12 +690,15 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.203366371758549</v>
+        <v>-0.2033663717585473</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>-0.2718608886625525</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>39.7234078343604</v>
       </c>
     </row>
@@ -690,12 +719,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.007084674024422709</v>
+        <v>-0.007084674024423061</v>
       </c>
       <c r="E10" t="n">
+        <v>0.1670969040636236</v>
+      </c>
+      <c r="F10" t="n">
         <v>-0.002314704702607021</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>2.213357898589673</v>
       </c>
     </row>
@@ -716,12 +748,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.0770876860507741</v>
+        <v>0.07708768605076211</v>
       </c>
       <c r="E11" t="n">
+        <v>3.191524238039252e-51</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.001755141192398348</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.4447713612955359</v>
       </c>
     </row>
@@ -742,12 +777,15 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.03467333633814527</v>
+        <v>0.03467333633815119</v>
       </c>
       <c r="E12" t="n">
+        <v>1.345622432084967e-11</v>
+      </c>
+      <c r="F12" t="n">
         <v>0.005141399943434205</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>3.539544497378245</v>
       </c>
     </row>
@@ -768,12 +806,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.06309472669240732</v>
+        <v>-0.06309472669240349</v>
       </c>
       <c r="E13" t="n">
+        <v>2.131853715565992e-35</v>
+      </c>
+      <c r="F13" t="n">
         <v>-0.07702222404894295</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>27.76380335777402</v>
       </c>
     </row>
@@ -794,12 +835,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.04577661083942125</v>
+        <v>0.04577661083942459</v>
       </c>
       <c r="E14" t="n">
+        <v>4.201502617541923e-19</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.002995369251027999</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.682302385284566</v>
       </c>
     </row>
@@ -820,12 +864,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.09276118630715771</v>
+        <v>0.09276118630714408</v>
       </c>
       <c r="E15" t="n">
+        <v>3.224377564244648e-75</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.002583650986259529</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.3039533042343949</v>
       </c>
     </row>
@@ -846,12 +893,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.2090269980705378</v>
+        <v>0.2090269980705514</v>
       </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.1416634215438617</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>8.070769057180158</v>
       </c>
     </row>
@@ -872,12 +922,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.008069699928227791</v>
+        <v>-0.008069699928228447</v>
       </c>
       <c r="E17" t="n">
+        <v>0.1110914720657063</v>
+      </c>
+      <c r="F17" t="n">
         <v>-0.0003220461268172733</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>9.330800733642207</v>
       </c>
     </row>
@@ -898,12 +951,15 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.1468836325102455</v>
+        <v>-0.1468836325102443</v>
       </c>
       <c r="E18" t="n">
+        <v>4.021697372809777e-187</v>
+      </c>
+      <c r="F18" t="n">
         <v>-0.6182945956433696</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>230.232233642718</v>
       </c>
     </row>
@@ -924,12 +980,15 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.01074747522368252</v>
+        <v>-0.01074747522368453</v>
       </c>
       <c r="E19" t="n">
+        <v>0.0336997076844424</v>
+      </c>
+      <c r="F19" t="n">
         <v>-0.003328830711495317</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>101.1641744023289</v>
       </c>
     </row>
@@ -950,12 +1009,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.01627343880400475</v>
+        <v>-0.016273438804005</v>
       </c>
       <c r="E20" t="n">
+        <v>0.001306085413048573</v>
+      </c>
+      <c r="F20" t="n">
         <v>-0.6043354895680826</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>350.3036919077513</v>
       </c>
     </row>
@@ -976,12 +1038,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.08456391703923806</v>
+        <v>0.08456391703924382</v>
       </c>
       <c r="E21" t="n">
+        <v>8.970905587534687e-63</v>
+      </c>
+      <c r="F21" t="n">
         <v>0.02197925907865274</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>22.50936113474939</v>
       </c>
     </row>
@@ -1002,12 +1067,15 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.07303048262394891</v>
+        <v>0.07303048262394755</v>
       </c>
       <c r="E22" t="n">
+        <v>2.411778849647698e-47</v>
+      </c>
+      <c r="F22" t="n">
         <v>0.003922270370429872</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>0.6856370283136093</v>
       </c>
     </row>
@@ -1028,12 +1096,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.04510416577698454</v>
+        <v>0.04510416577698601</v>
       </c>
       <c r="E23" t="n">
+        <v>4.886651988800201e-19</v>
+      </c>
+      <c r="F23" t="n">
         <v>0.04592809199962965</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>1.290740708398302</v>
       </c>
     </row>
@@ -1054,12 +1125,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.2374386786752196</v>
+        <v>0.2374386786752149</v>
       </c>
       <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>0.01254967915742845</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>0.2818790889160697</v>
       </c>
     </row>
@@ -1080,12 +1154,15 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.3011328339288796</v>
+        <v>-0.3011328339288749</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>-0.06505810591672569</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>6.88724452980306</v>
       </c>
     </row>
@@ -1106,12 +1183,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.0766619913901873</v>
+        <v>0.07666199139019779</v>
       </c>
       <c r="E26" t="n">
+        <v>1.122219326520917e-50</v>
+      </c>
+      <c r="F26" t="n">
         <v>0.01639938016413258</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>2.017241294618896</v>
       </c>
     </row>
@@ -1132,12 +1212,15 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-0.006557814006051123</v>
+        <v>-0.006557814006050934</v>
       </c>
       <c r="E27" t="n">
+        <v>0.1954679459471686</v>
+      </c>
+      <c r="F27" t="n">
         <v>-0.1073122843276539</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>153.7293253425418</v>
       </c>
     </row>
@@ -1158,12 +1241,15 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-0.006803757617715148</v>
+        <v>-0.00680375761771501</v>
       </c>
       <c r="E28" t="n">
+        <v>0.1794941022186283</v>
+      </c>
+      <c r="F28" t="n">
         <v>-0.0280812337836728</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>110.8281568441822</v>
       </c>
     </row>
@@ -1184,12 +1270,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-0.1117336200556031</v>
+        <v>-0.1117336200556091</v>
       </c>
       <c r="E29" t="n">
+        <v>4.296478771722811e-106</v>
+      </c>
+      <c r="F29" t="n">
         <v>-0.04823634127974961</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>45.11671658275911</v>
       </c>
     </row>
@@ -1210,12 +1299,15 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.03244986466277055</v>
+        <v>0.03244986466276854</v>
       </c>
       <c r="E30" t="n">
+        <v>1.422793068149037e-10</v>
+      </c>
+      <c r="F30" t="n">
         <v>0.06645177226889105</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>52.64387765647989</v>
       </c>
     </row>
@@ -1236,12 +1328,15 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-0.1460438320782534</v>
+        <v>-0.1460438320782675</v>
       </c>
       <c r="E31" t="n">
+        <v>8.744367087835152e-181</v>
+      </c>
+      <c r="F31" t="n">
         <v>-0.021998971667477</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>15.19803870299154</v>
       </c>
     </row>
@@ -1262,12 +1357,15 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.06688944712059786</v>
+        <v>0.06688944712059404</v>
       </c>
       <c r="E32" t="n">
+        <v>8.266585429397475e-40</v>
+      </c>
+      <c r="F32" t="n">
         <v>0.002931517325154973</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>3.997506781920416</v>
       </c>
     </row>
@@ -1288,12 +1386,15 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-0.1469310848092764</v>
+        <v>-0.1469310848092882</v>
       </c>
       <c r="E33" t="n">
+        <v>1.312485564908019e-183</v>
+      </c>
+      <c r="F33" t="n">
         <v>-0.5302593978528821</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>138.2726667622853</v>
       </c>
     </row>
@@ -1314,12 +1415,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-0.1662294742900147</v>
+        <v>-0.166229474290029</v>
       </c>
       <c r="E34" t="n">
+        <v>9.880891957671523e-234</v>
+      </c>
+      <c r="F34" t="n">
         <v>-0.1540933824167955</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>40.53764855751436</v>
       </c>
     </row>
@@ -1340,12 +1444,15 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.08355786217508804</v>
+        <v>0.0835578621750977</v>
       </c>
       <c r="E35" t="n">
+        <v>7.462968008862441e-60</v>
+      </c>
+      <c r="F35" t="n">
         <v>0.0184483909487379</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>29.2497915745897</v>
       </c>
     </row>
@@ -1366,12 +1473,15 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-0.1059160915108095</v>
+        <v>-0.1059160915108074</v>
       </c>
       <c r="E36" t="n">
+        <v>1.382085526995036e-94</v>
+      </c>
+      <c r="F36" t="n">
         <v>-0.01345837175746996</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>33.71613697701856</v>
       </c>
     </row>
@@ -1392,12 +1502,15 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.1587761374284595</v>
+        <v>0.1587761374284462</v>
       </c>
       <c r="E37" t="n">
+        <v>1.713237743998367e-213</v>
+      </c>
+      <c r="F37" t="n">
         <v>0.1060245422870603</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>85.93918913799236</v>
       </c>
     </row>
@@ -1418,12 +1531,15 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.1172411440932713</v>
+        <v>0.1172411440932922</v>
       </c>
       <c r="E38" t="n">
+        <v>1.761573935353332e-116</v>
+      </c>
+      <c r="F38" t="n">
         <v>0.02838470142998565</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>6.554551651851291</v>
       </c>
     </row>
@@ -1444,12 +1560,15 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.01929799693472205</v>
+        <v>0.01929799693472415</v>
       </c>
       <c r="E39" t="n">
+        <v>0.0001756129452610171</v>
+      </c>
+      <c r="F39" t="n">
         <v>0.001999425599469824</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>11.09144553496187</v>
       </c>
     </row>
@@ -1470,12 +1589,15 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.04409722188346797</v>
+        <v>0.04409722188347201</v>
       </c>
       <c r="E40" t="n">
+        <v>2.847234105014659e-18</v>
+      </c>
+      <c r="F40" t="n">
         <v>0.0124586803722178</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>138.6491287539256</v>
       </c>
     </row>
@@ -1496,12 +1618,15 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.1089462431679458</v>
+        <v>0.1089462431679627</v>
       </c>
       <c r="E41" t="n">
+        <v>9.378268031114908e-101</v>
+      </c>
+      <c r="F41" t="n">
         <v>0.1068555956047109</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>50.18592522252896</v>
       </c>
     </row>
@@ -1522,12 +1647,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.1427258637962236</v>
+        <v>0.1427258637962312</v>
       </c>
       <c r="E42" t="n">
+        <v>2.164947567616384e-172</v>
+      </c>
+      <c r="F42" t="n">
         <v>14.28183414830469</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>-686.4991125781737</v>
       </c>
     </row>
@@ -1548,12 +1676,15 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.02318621224486565</v>
+        <v>0.02318621224486621</v>
       </c>
       <c r="E43" t="n">
+        <v>6.55292817674081e-06</v>
+      </c>
+      <c r="F43" t="n">
         <v>0.005649444155837429</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>13.51630864524339</v>
       </c>
     </row>
@@ -1574,12 +1705,15 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-0.1394933944637069</v>
+        <v>-0.1394933944637042</v>
       </c>
       <c r="E44" t="n">
+        <v>7.912438899432419e-165</v>
+      </c>
+      <c r="F44" t="n">
         <v>-0.9267551515972148</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>292.7865199739906</v>
       </c>
     </row>
@@ -1600,12 +1734,15 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-0.1990200981351666</v>
+        <v>-0.1990200981351715</v>
       </c>
       <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>-0.01023855036910609</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>5.206189297428653</v>
       </c>
     </row>
@@ -1626,12 +1763,15 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.1074671112475073</v>
+        <v>0.1074671112474966</v>
       </c>
       <c r="E46" t="n">
+        <v>3.096947648583196e-98</v>
+      </c>
+      <c r="F46" t="n">
         <v>0.01507928326000833</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>12.91162284498024</v>
       </c>
     </row>
@@ -1652,12 +1792,15 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-0.08783893099274334</v>
+        <v>-0.08783893099273946</v>
       </c>
       <c r="E47" t="n">
+        <v>1.051846280900453e-67</v>
+      </c>
+      <c r="F47" t="n">
         <v>-0.8924211294678051</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>208.8360682213653</v>
       </c>
     </row>
@@ -1678,12 +1821,15 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-0.14026622540084</v>
+        <v>-0.1402662254008531</v>
       </c>
       <c r="E48" t="n">
+        <v>9.937964834215944e-171</v>
+      </c>
+      <c r="F48" t="n">
         <v>-0.006280994276909563</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>7.301357260473355</v>
       </c>
     </row>
@@ -1704,12 +1850,15 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.01553024143903176</v>
+        <v>0.01553024143903249</v>
       </c>
       <c r="E49" t="n">
+        <v>0.002455929294942146</v>
+      </c>
+      <c r="F49" t="n">
         <v>0.005843585983344512</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>6.363652523355558</v>
       </c>
     </row>
@@ -1730,12 +1879,15 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.02123351272013781</v>
+        <v>0.0212335127201407</v>
       </c>
       <c r="E50" t="n">
+        <v>2.970292876435743e-05</v>
+      </c>
+      <c r="F50" t="n">
         <v>0.01288033757477638</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>0.8930332981376944</v>
       </c>
     </row>
@@ -1756,12 +1908,15 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.1169942049545605</v>
+        <v>0.1169942049545726</v>
       </c>
       <c r="E51" t="n">
+        <v>6.624058273246778e-118</v>
+      </c>
+      <c r="F51" t="n">
         <v>0.1585974982652485</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>20.42149206816862</v>
       </c>
     </row>
@@ -1782,12 +1937,15 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-0.1801333818004034</v>
+        <v>-0.1801333818004023</v>
       </c>
       <c r="E52" t="n">
+        <v>5.649331153102502e-281</v>
+      </c>
+      <c r="F52" t="n">
         <v>-254.9026928965845</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>65483.5596969927</v>
       </c>
     </row>
@@ -1808,12 +1966,15 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.06468505948153164</v>
+        <v>0.06468505948152443</v>
       </c>
       <c r="E53" t="n">
+        <v>2.360233813520542e-37</v>
+      </c>
+      <c r="F53" t="n">
         <v>0.02359246147905245</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>2.277274916697566</v>
       </c>
     </row>
@@ -1834,12 +1995,15 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-0.00661300298558162</v>
+        <v>-0.00661300298558058</v>
       </c>
       <c r="E54" t="n">
+        <v>0.1921162397519456</v>
+      </c>
+      <c r="F54" t="n">
         <v>-0.2927662537397387</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>606.3450092111892</v>
       </c>
     </row>
@@ -1860,12 +2024,15 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.05535768371930611</v>
+        <v>0.05535768371929949</v>
       </c>
       <c r="E55" t="n">
+        <v>8.565962169148031e-28</v>
+      </c>
+      <c r="F55" t="n">
         <v>0.3690737239797158</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>-17.09484191470722</v>
       </c>
     </row>
@@ -1886,12 +2053,15 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.1166307536794133</v>
+        <v>0.1166307536793994</v>
       </c>
       <c r="E56" t="n">
+        <v>6.903827885496039e-118</v>
+      </c>
+      <c r="F56" t="n">
         <v>20.72027278578907</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>410.0722629345823</v>
       </c>
     </row>
@@ -1912,12 +2082,15 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-0.1899016688918534</v>
+        <v>-0.1899016688918516</v>
       </c>
       <c r="E57" t="n">
+        <v>1.310442440555675e-312</v>
+      </c>
+      <c r="F57" t="n">
         <v>-0.7545544889977875</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>155.8169872330444</v>
       </c>
     </row>
@@ -1938,12 +2111,15 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-0.01911660583326321</v>
+        <v>-0.01911660583326106</v>
       </c>
       <c r="E58" t="n">
+        <v>0.001177650717259202</v>
+      </c>
+      <c r="F58" t="n">
         <v>-0.001113214880410209</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>1.022143178454149</v>
       </c>
     </row>
@@ -1964,12 +2140,15 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.103496202314635</v>
+        <v>0.1034962023146337</v>
       </c>
       <c r="E59" t="n">
+        <v>1.556994373636372e-73</v>
+      </c>
+      <c r="F59" t="n">
         <v>0.05597395128830775</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>9.0848977304444</v>
       </c>
     </row>
@@ -1990,12 +2169,15 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-0.09664253218910698</v>
+        <v>-0.09664253218909984</v>
       </c>
       <c r="E60" t="n">
+        <v>6.809948352340316e-69</v>
+      </c>
+      <c r="F60" t="n">
         <v>-100.6090021773597</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>43190.04987103814</v>
       </c>
     </row>
@@ -2016,12 +2198,15 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.008095898513030528</v>
+        <v>0.008095898513030131</v>
       </c>
       <c r="E61" t="n">
+        <v>0.1426126916968537</v>
+      </c>
+      <c r="F61" t="n">
         <v>0.05611728526314648</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>218.2870491557138</v>
       </c>
     </row>
@@ -2042,12 +2227,15 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.02484979619388765</v>
+        <v>0.02484979619388925</v>
       </c>
       <c r="E62" t="n">
+        <v>2.512772735693035e-06</v>
+      </c>
+      <c r="F62" t="n">
         <v>0.0001005096803697901</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>0.04293580287497157</v>
       </c>
     </row>
@@ -2068,12 +2256,15 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.0312731775101734</v>
+        <v>0.03127317751017369</v>
       </c>
       <c r="E63" t="n">
+        <v>3.147929085419612e-09</v>
+      </c>
+      <c r="F63" t="n">
         <v>0.0001005934687984667</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>0.02966589049366279</v>
       </c>
     </row>
@@ -2094,12 +2285,15 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>-0.00239193462939982</v>
+        <v>-0.00239193462939989</v>
       </c>
       <c r="E64" t="n">
+        <v>0.6505743145684189</v>
+      </c>
+      <c r="F64" t="n">
         <v>-1.626049610377293e-06</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>0.007052331810573682</v>
       </c>
     </row>
@@ -2120,12 +2314,15 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.06537007250552059</v>
+        <v>0.06537007250552712</v>
       </c>
       <c r="E65" t="n">
+        <v>2.821461063709039e-35</v>
+      </c>
+      <c r="F65" t="n">
         <v>0.001173650091441918</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>0.1430287653485339</v>
       </c>
     </row>
@@ -2146,12 +2343,15 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.01355694239652476</v>
+        <v>0.01355694239652444</v>
       </c>
       <c r="E66" t="n">
+        <v>0.01024601531812355</v>
+      </c>
+      <c r="F66" t="n">
         <v>3.400233364512416e-06</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>0.001441205524854463</v>
       </c>
     </row>
@@ -2172,12 +2372,15 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.06231361810206806</v>
+        <v>0.06231361810206664</v>
       </c>
       <c r="E67" t="n">
+        <v>3.388491536050521e-32</v>
+      </c>
+      <c r="F67" t="n">
         <v>0.001069485313303475</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>0.1371856101191732</v>
       </c>
     </row>
@@ -2198,12 +2401,15 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.07229832652416752</v>
+        <v>0.07229832652417559</v>
       </c>
       <c r="E68" t="n">
+        <v>8.760704141522885e-43</v>
+      </c>
+      <c r="F68" t="n">
         <v>0.001152441832833644</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>0.1187466523717531</v>
       </c>
     </row>
@@ -2224,12 +2430,15 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.06637996194952088</v>
+        <v>0.06637996194952836</v>
       </c>
       <c r="E69" t="n">
+        <v>2.529430223076057e-36</v>
+      </c>
+      <c r="F69" t="n">
         <v>0.001000643730678438</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>0.1186262125451965</v>
       </c>
     </row>
@@ -2250,12 +2459,15 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.1080120915300675</v>
+        <v>0.1080120915300782</v>
       </c>
       <c r="E70" t="n">
+        <v>1.526724505381813e-93</v>
+      </c>
+      <c r="F70" t="n">
         <v>0.0001499393927828017</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>-0.002383212304810188</v>
       </c>
     </row>
@@ -2276,12 +2488,15 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.04194798840572926</v>
+        <v>0.04194798840572827</v>
       </c>
       <c r="E71" t="n">
+        <v>9.277599741244895e-16</v>
+      </c>
+      <c r="F71" t="n">
         <v>0.0005269204293723817</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>0.6796450733728078</v>
       </c>
     </row>
@@ -2302,12 +2517,15 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-0.05167932289440566</v>
+        <v>-0.05167932289440424</v>
       </c>
       <c r="E72" t="n">
+        <v>4.057274300367582e-23</v>
+      </c>
+      <c r="F72" t="n">
         <v>-0.0005100106775634826</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>0.1948664448983609</v>
       </c>
     </row>
@@ -2328,12 +2546,15 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-0.04025599987854061</v>
+        <v>-0.04025599987854175</v>
       </c>
       <c r="E73" t="n">
+        <v>1.242009181603841e-14</v>
+      </c>
+      <c r="F73" t="n">
         <v>-5.892765405583931e-05</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>0.01281334873068574</v>
       </c>
     </row>
@@ -2354,12 +2575,15 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>-0.01379444222691543</v>
+        <v>-0.0137944422269161</v>
       </c>
       <c r="E74" t="n">
+        <v>0.008251781349869411</v>
+      </c>
+      <c r="F74" t="n">
         <v>-0.0001015825859395605</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>0.939785270984012</v>
       </c>
     </row>
@@ -2380,12 +2604,15 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-0.02222062564963683</v>
+        <v>-0.02222062564963759</v>
       </c>
       <c r="E75" t="n">
+        <v>2.081503924990686e-05</v>
+      </c>
+      <c r="F75" t="n">
         <v>-0.0001914165844263919</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>0.966074011006457</v>
       </c>
     </row>
@@ -2406,12 +2633,15 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.1047432970124634</v>
+        <v>0.1047432970124674</v>
       </c>
       <c r="E76" t="n">
+        <v>5.500521290627339e-90</v>
+      </c>
+      <c r="F76" t="n">
         <v>0.0004508241995920693</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>0.008244821007219811</v>
       </c>
     </row>
@@ -2432,12 +2662,15 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.01627681457294814</v>
+        <v>0.01627681457294641</v>
       </c>
       <c r="E77" t="n">
+        <v>0.001959593733409111</v>
+      </c>
+      <c r="F77" t="n">
         <v>0.004908090271478631</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>-0.1272113660987087</v>
       </c>
     </row>
@@ -2458,12 +2691,15 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-0.03647903169517407</v>
+        <v>-0.03647903169517547</v>
       </c>
       <c r="E78" t="n">
+        <v>4.080463857286125e-10</v>
+      </c>
+      <c r="F78" t="n">
         <v>-0.0001054848674409662</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>0.03435301462624181</v>
       </c>
     </row>
@@ -2484,12 +2720,15 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-0.2046207832636806</v>
+        <v>-0.2046207832636796</v>
       </c>
       <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
         <v>-0.004028699770725899</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>0.6094403814528566</v>
       </c>
     </row>
@@ -2510,12 +2749,15 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-0.07400820171425022</v>
+        <v>-0.07400820171424882</v>
       </c>
       <c r="E80" t="n">
+        <v>3.976329906230094e-45</v>
+      </c>
+      <c r="F80" t="n">
         <v>-0.0020320713076347</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>0.4891055410739261</v>
       </c>
     </row>
@@ -2536,12 +2778,15 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-0.03555813987331137</v>
+        <v>-0.03555813987331011</v>
       </c>
       <c r="E81" t="n">
+        <v>1.458650288511029e-11</v>
+      </c>
+      <c r="F81" t="n">
         <v>-0.0002670751895564425</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>0.05228705955826547</v>
       </c>
     </row>
@@ -2562,12 +2807,15 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>-0.1838696832214357</v>
+        <v>-0.1838696832214272</v>
       </c>
       <c r="E82" t="n">
+        <v>1.380353015732398e-272</v>
+      </c>
+      <c r="F82" t="n">
         <v>-0.008984911588898482</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>1.565178210759084</v>
       </c>
     </row>
@@ -2588,12 +2836,15 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>-0.007829013673481459</v>
+        <v>-0.007829013673482335</v>
       </c>
       <c r="E83" t="n">
+        <v>0.1370067467435409</v>
+      </c>
+      <c r="F83" t="n">
         <v>-9.648871632140741e-05</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>0.02522333921366616</v>
       </c>
     </row>
@@ -2614,12 +2865,15 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.02057800169401172</v>
+        <v>0.02057800169401353</v>
       </c>
       <c r="E84" t="n">
+        <v>9.271456004384778e-05</v>
+      </c>
+      <c r="F84" t="n">
         <v>0.00605966828142052</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>-0.3442198051273354</v>
       </c>
     </row>
@@ -2640,12 +2894,15 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>-0.3352812668285164</v>
+        <v>-0.335281266828535</v>
       </c>
       <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
         <v>-0.002308513043055134</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>0.2253622119910776</v>
       </c>
     </row>
@@ -2666,12 +2923,15 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>-0.09587296690479248</v>
+        <v>-0.09587296690479158</v>
       </c>
       <c r="E86" t="n">
+        <v>2.434743837130983e-74</v>
+      </c>
+      <c r="F86" t="n">
         <v>-0.003179403013916181</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>0.6608452993149297</v>
       </c>
     </row>
@@ -2692,12 +2952,15 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>-0.1775456823333268</v>
+        <v>-0.177545682333318</v>
       </c>
       <c r="E87" t="n">
+        <v>5.236586129857459e-254</v>
+      </c>
+      <c r="F87" t="n">
         <v>-0.01174247183883211</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>2.201711002578542</v>
       </c>
     </row>
@@ -2718,12 +2981,15 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>-0.1152327330091165</v>
+        <v>-0.1152327330091279</v>
       </c>
       <c r="E88" t="n">
+        <v>6.954128865265007e-107</v>
+      </c>
+      <c r="F88" t="n">
         <v>-0.001449725376894515</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>0.1925330115085039</v>
       </c>
     </row>
@@ -2744,12 +3010,15 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>-0.1003938296554348</v>
+        <v>-0.1003938296554417</v>
       </c>
       <c r="E89" t="n">
+        <v>1.605893471130432e-83</v>
+      </c>
+      <c r="F89" t="n">
         <v>-0.0005703493290413531</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>0.1089448018725925</v>
       </c>
     </row>
@@ -2770,12 +3039,15 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.04243369665543557</v>
+        <v>0.04243369665543929</v>
       </c>
       <c r="E90" t="n">
+        <v>3.164140829734301e-16</v>
+      </c>
+      <c r="F90" t="n">
         <v>0.0005185901506695189</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>0.2119769053617056</v>
       </c>
     </row>
@@ -2796,12 +3068,15 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-0.048055789798557</v>
+        <v>-0.0480557897985621</v>
       </c>
       <c r="E91" t="n">
+        <v>2.242375763354471e-20</v>
+      </c>
+      <c r="F91" t="n">
         <v>-0.0006834251048372405</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>0.7275164951904737</v>
       </c>
     </row>
@@ -2822,12 +3097,15 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-0.1463056539376991</v>
+        <v>-0.1463056539377124</v>
       </c>
       <c r="E92" t="n">
+        <v>3.649500670122602e-176</v>
+      </c>
+      <c r="F92" t="n">
         <v>-0.001989791156307053</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>0.836284627743345</v>
       </c>
     </row>
@@ -2848,12 +3126,15 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-0.06955309082888385</v>
+        <v>-0.06955309082887429</v>
       </c>
       <c r="E93" t="n">
+        <v>8.200144746553206e-41</v>
+      </c>
+      <c r="F93" t="n">
         <v>-0.00122236159124212</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>0.7388395443484377</v>
       </c>
     </row>
@@ -2874,12 +3155,15 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.08473380309883871</v>
+        <v>0.08473380309884879</v>
       </c>
       <c r="E94" t="n">
+        <v>3.706948238984972e-58</v>
+      </c>
+      <c r="F94" t="n">
         <v>0.0002139735311708695</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>0.01971892911792354</v>
       </c>
     </row>
@@ -2900,12 +3184,15 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.08561819144693414</v>
+        <v>0.08561819144694056</v>
       </c>
       <c r="E95" t="n">
+        <v>2.412595720846856e-59</v>
+      </c>
+      <c r="F95" t="n">
         <v>0.0001866274643674251</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>0.01710434041063528</v>
       </c>
     </row>
@@ -2926,12 +3213,15 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.02933786956984716</v>
+        <v>0.02933786956984913</v>
       </c>
       <c r="E96" t="n">
+        <v>2.735607483017752e-08</v>
+      </c>
+      <c r="F96" t="n">
         <v>1.715103370958277e-05</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>0.006502637550195282</v>
       </c>
     </row>
@@ -2952,12 +3242,15 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.01134585334149732</v>
+        <v>0.01134585334149746</v>
       </c>
       <c r="E97" t="n">
+        <v>0.08647146525363116</v>
+      </c>
+      <c r="F97" t="n">
         <v>0.001149925176784506</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>5.864237995274812</v>
       </c>
     </row>
@@ -2978,12 +3271,15 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.04900170853897519</v>
+        <v>0.04900170853897563</v>
       </c>
       <c r="E98" t="n">
+        <v>2.323641862414299e-14</v>
+      </c>
+      <c r="F98" t="n">
         <v>0.09121473666887112</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>48.52934692928739</v>
       </c>
     </row>
@@ -3004,12 +3300,15 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>-0.06897599935304149</v>
+        <v>-0.06897599935304304</v>
       </c>
       <c r="E99" t="n">
+        <v>2.624586526242171e-27</v>
+      </c>
+      <c r="F99" t="n">
         <v>-0.2825602815975515</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>210.102144139895</v>
       </c>
     </row>
@@ -3030,12 +3329,15 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-0.02548319068779759</v>
+        <v>-0.02548319068779768</v>
       </c>
       <c r="E100" t="n">
+        <v>6.003936747102955e-05</v>
+      </c>
+      <c r="F100" t="n">
         <v>-0.01028022333652526</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>3.966463781158021</v>
       </c>
     </row>
@@ -3056,12 +3358,15 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.265881637647949</v>
+        <v>0.2658816376479547</v>
       </c>
       <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
         <v>0.01314112205545505</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>0.2112008331157985</v>
       </c>
     </row>
@@ -3082,12 +3387,15 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>-0.6494394213973185</v>
+        <v>-0.6494394213973196</v>
       </c>
       <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
         <v>-16694177.07813136</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>1445879347.519366</v>
       </c>
     </row>
@@ -3108,12 +3416,15 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>-0.6494394183858155</v>
+        <v>-0.6494394183858048</v>
       </c>
       <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
         <v>-16694.17708722652</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>1445879.331392402</v>
       </c>
     </row>
@@ -3134,12 +3445,15 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>-0.04336283806726025</v>
+        <v>-0.04336283806725917</v>
       </c>
       <c r="E104" t="n">
+        <v>7.102276875215612e-12</v>
+      </c>
+      <c r="F104" t="n">
         <v>-0.2871067147765898</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>204.6602360366668</v>
       </c>
     </row>
@@ -3160,12 +3474,15 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.04001339555697107</v>
+        <v>0.04001339555697439</v>
       </c>
       <c r="E105" t="n">
+        <v>2.361486942778821e-09</v>
+      </c>
+      <c r="F105" t="n">
         <v>0.0002338026233613674</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>0.0369394654636207</v>
       </c>
     </row>
@@ -3186,12 +3503,15 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.08328118767428759</v>
+        <v>0.083281187674301</v>
       </c>
       <c r="E106" t="n">
+        <v>1.429291918846559e-35</v>
+      </c>
+      <c r="F106" t="n">
         <v>0.001256932623510929</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>0.1231688939490346</v>
       </c>
     </row>
@@ -3212,12 +3532,15 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>-0.1108265533628273</v>
+        <v>-0.1108265533628237</v>
       </c>
       <c r="E107" t="n">
+        <v>6.3055298742478e-63</v>
+      </c>
+      <c r="F107" t="n">
         <v>-0.003172450634807631</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>4.164463169818927</v>
       </c>
     </row>
@@ -3238,12 +3561,15 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>-0.003372907485046703</v>
+        <v>-0.003372907485046494</v>
       </c>
       <c r="E108" t="n">
+        <v>0.6116600624389876</v>
+      </c>
+      <c r="F108" t="n">
         <v>-0.008700180272399598</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>80.46055659594461</v>
       </c>
     </row>
@@ -3264,12 +3590,15 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>-0.1831528104449599</v>
+        <v>-0.1831528104449575</v>
       </c>
       <c r="E109" t="n">
+        <v>1.69591649321721e-169</v>
+      </c>
+      <c r="F109" t="n">
         <v>-0.2121867251725982</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>35.721185560995</v>
       </c>
     </row>
@@ -3290,12 +3619,15 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>-0.06690697730329168</v>
+        <v>-0.06690697730328939</v>
       </c>
       <c r="E110" t="n">
+        <v>1.609576721951758e-23</v>
+      </c>
+      <c r="F110" t="n">
         <v>-0.008156104111101454</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>2.563992680743612</v>
       </c>
     </row>
@@ -3316,12 +3648,15 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.09640040239861089</v>
+        <v>0.09640040239860657</v>
       </c>
       <c r="E111" t="n">
+        <v>4.000342777151956e-47</v>
+      </c>
+      <c r="F111" t="n">
         <v>0.002012145875060344</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>0.426004244788309</v>
       </c>
     </row>
@@ -3342,12 +3677,15 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.02266975251977653</v>
+        <v>0.02266975251977515</v>
       </c>
       <c r="E112" t="n">
+        <v>0.0007200227161716422</v>
+      </c>
+      <c r="F112" t="n">
         <v>0.003162317233862351</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>3.710205987777503</v>
       </c>
     </row>
@@ -3368,12 +3706,15 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>-0.07060227709007072</v>
+        <v>-0.07060227709006495</v>
       </c>
       <c r="E113" t="n">
+        <v>2.689503455884493e-26</v>
+      </c>
+      <c r="F113" t="n">
         <v>-0.09699853023777785</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>30.08117743336497</v>
       </c>
     </row>
@@ -3394,12 +3735,15 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.06277944717654697</v>
+        <v>0.06277944717654027</v>
       </c>
       <c r="E114" t="n">
+        <v>7.024252921494381e-21</v>
+      </c>
+      <c r="F114" t="n">
         <v>0.003939038536019183</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>0.6157357182777154</v>
       </c>
     </row>
@@ -3420,12 +3764,15 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.05238220020542374</v>
+        <v>0.05238220020542698</v>
       </c>
       <c r="E115" t="n">
+        <v>3.190206700844934e-15</v>
+      </c>
+      <c r="F115" t="n">
         <v>0.001283192479310799</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>0.388701289513894</v>
       </c>
     </row>
@@ -3446,12 +3793,15 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.2279272099462768</v>
+        <v>0.2279272099462771</v>
       </c>
       <c r="E116" t="n">
+        <v>3.71591152962425e-265</v>
+      </c>
+      <c r="F116" t="n">
         <v>0.1450940687631855</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>7.60563029597717</v>
       </c>
     </row>
@@ -3472,12 +3822,15 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.0413485883467999</v>
+        <v>0.04134858834680019</v>
       </c>
       <c r="E117" t="n">
+        <v>4.687291483304668e-10</v>
+      </c>
+      <c r="F117" t="n">
         <v>0.001433085861459741</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>9.196461458906688</v>
       </c>
     </row>
@@ -3498,12 +3851,15 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>-0.09965141842448969</v>
+        <v>-0.09965141842449145</v>
       </c>
       <c r="E118" t="n">
+        <v>3.6672404262003e-51</v>
+      </c>
+      <c r="F118" t="n">
         <v>-0.3710570399809864</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>212.1109686513149</v>
       </c>
     </row>
@@ -3524,12 +3880,15 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>-0.0536573515924478</v>
+        <v>-0.0536573515924466</v>
       </c>
       <c r="E119" t="n">
+        <v>6.106079073792877e-16</v>
+      </c>
+      <c r="F119" t="n">
         <v>-0.01499801727945135</v>
       </c>
-      <c r="F119" t="n">
+      <c r="G119" t="n">
         <v>101.9213354181907</v>
       </c>
     </row>
@@ -3550,12 +3909,15 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>-0.0802714592073334</v>
+        <v>-0.08027145920733642</v>
       </c>
       <c r="E120" t="n">
+        <v>9.651266630285163e-34</v>
+      </c>
+      <c r="F120" t="n">
         <v>-2.806769110814941</v>
       </c>
-      <c r="F120" t="n">
+      <c r="G120" t="n">
         <v>523.0325441364498</v>
       </c>
     </row>
@@ -3576,12 +3938,15 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.1427491449410602</v>
+        <v>0.1427491449410496</v>
       </c>
       <c r="E121" t="n">
+        <v>1.578264359120405e-103</v>
+      </c>
+      <c r="F121" t="n">
         <v>0.03365936485378593</v>
       </c>
-      <c r="F121" t="n">
+      <c r="G121" t="n">
         <v>21.6511790689253</v>
       </c>
     </row>
@@ -3602,12 +3967,15 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.05703832636081625</v>
+        <v>0.0570383263608164</v>
       </c>
       <c r="E122" t="n">
+        <v>8.129025305116709e-18</v>
+      </c>
+      <c r="F122" t="n">
         <v>0.003427303675051878</v>
       </c>
-      <c r="F122" t="n">
+      <c r="G122" t="n">
         <v>0.7321062517624815</v>
       </c>
     </row>
@@ -3628,12 +3996,15 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.01100362199137214</v>
+        <v>0.01100362199137198</v>
       </c>
       <c r="E123" t="n">
+        <v>0.09762669196240377</v>
+      </c>
+      <c r="F123" t="n">
         <v>0.009241409608293611</v>
       </c>
-      <c r="F123" t="n">
+      <c r="G123" t="n">
         <v>3.681388385573115</v>
       </c>
     </row>
@@ -3654,12 +4025,15 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.1839486208402544</v>
+        <v>0.1839486208402613</v>
       </c>
       <c r="E124" t="n">
+        <v>7.943399783973507e-172</v>
+      </c>
+      <c r="F124" t="n">
         <v>0.009580333128785742</v>
       </c>
-      <c r="F124" t="n">
+      <c r="G124" t="n">
         <v>0.4942867857382512</v>
       </c>
     </row>
@@ -3680,12 +4054,15 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>-0.3299952202676812</v>
+        <v>-0.3299952202676774</v>
       </c>
       <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
         <v>-0.07888898054568971</v>
       </c>
-      <c r="F125" t="n">
+      <c r="G125" t="n">
         <v>8.007735779389074</v>
       </c>
     </row>
@@ -3706,12 +4083,15 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.1164384719306543</v>
+        <v>0.1164384719306515</v>
       </c>
       <c r="E126" t="n">
+        <v>4.598428561237582e-68</v>
+      </c>
+      <c r="F126" t="n">
         <v>0.02320946843043421</v>
       </c>
-      <c r="F126" t="n">
+      <c r="G126" t="n">
         <v>1.528953185527195</v>
       </c>
     </row>
@@ -3732,12 +4112,15 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>-0.0262122487587269</v>
+        <v>-0.02621224875872704</v>
       </c>
       <c r="E127" t="n">
+        <v>7.975986965259299e-05</v>
+      </c>
+      <c r="F127" t="n">
         <v>-0.4475279645522351</v>
       </c>
-      <c r="F127" t="n">
+      <c r="G127" t="n">
         <v>193.3065144196915</v>
       </c>
     </row>
@@ -3758,12 +4141,15 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>-0.009695545994018168</v>
+        <v>-0.009695545994017576</v>
       </c>
       <c r="E128" t="n">
+        <v>0.1446725158918879</v>
+      </c>
+      <c r="F128" t="n">
         <v>-0.03702256789976648</v>
       </c>
-      <c r="F128" t="n">
+      <c r="G128" t="n">
         <v>111.7193218960736</v>
       </c>
     </row>
@@ -3784,12 +4170,15 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>-0.08703280612171024</v>
+        <v>-0.08703280612170182</v>
       </c>
       <c r="E129" t="n">
+        <v>7.731433714976223e-39</v>
+      </c>
+      <c r="F129" t="n">
         <v>-0.03382787045211936</v>
       </c>
-      <c r="F129" t="n">
+      <c r="G129" t="n">
         <v>44.05996391916453</v>
       </c>
     </row>
@@ -3810,12 +4199,15 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.03475442312996702</v>
+        <v>0.03475442312996686</v>
       </c>
       <c r="E130" t="n">
+        <v>1.640268859688518e-07</v>
+      </c>
+      <c r="F130" t="n">
         <v>0.07018511580661159</v>
       </c>
-      <c r="F130" t="n">
+      <c r="G130" t="n">
         <v>52.2753004771997</v>
       </c>
     </row>
@@ -3836,12 +4228,15 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>-0.08889764314393181</v>
+        <v>-0.08889764314393264</v>
       </c>
       <c r="E131" t="n">
+        <v>1.87483019468285e-40</v>
+      </c>
+      <c r="F131" t="n">
         <v>-0.01192474568291237</v>
       </c>
-      <c r="F131" t="n">
+      <c r="G131" t="n">
         <v>14.48514429579341</v>
       </c>
     </row>
@@ -3862,12 +4257,15 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.07385125030693651</v>
+        <v>0.07385125030693482</v>
       </c>
       <c r="E132" t="n">
+        <v>9.537317560728981e-29</v>
+      </c>
+      <c r="F132" t="n">
         <v>0.003005646901310738</v>
       </c>
-      <c r="F132" t="n">
+      <c r="G132" t="n">
         <v>3.981561197937505</v>
       </c>
     </row>
@@ -3888,12 +4286,15 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>-0.1158506553461459</v>
+        <v>-0.1158506553461581</v>
       </c>
       <c r="E133" t="n">
+        <v>8.370554147083526e-67</v>
+      </c>
+      <c r="F133" t="n">
         <v>-0.3721143824076004</v>
       </c>
-      <c r="F133" t="n">
+      <c r="G133" t="n">
         <v>126.2283500771504</v>
       </c>
     </row>
@@ -3914,12 +4315,15 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>-0.1630413493448088</v>
+        <v>-0.1630413493448057</v>
       </c>
       <c r="E134" t="n">
+        <v>1.800901624909913e-132</v>
+      </c>
+      <c r="F134" t="n">
         <v>-0.1405356034990728</v>
       </c>
-      <c r="F134" t="n">
+      <c r="G134" t="n">
         <v>39.74640971734924</v>
       </c>
     </row>
@@ -3940,12 +4344,15 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.1531092284817003</v>
+        <v>0.1531092284817005</v>
       </c>
       <c r="E135" t="n">
+        <v>4.490961589498287e-117</v>
+      </c>
+      <c r="F135" t="n">
         <v>0.03186246282359563</v>
       </c>
-      <c r="F135" t="n">
+      <c r="G135" t="n">
         <v>28.34461611129812</v>
       </c>
     </row>
@@ -3966,12 +4373,15 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>-0.02740439542690917</v>
+        <v>-0.02740439542691087</v>
       </c>
       <c r="E136" t="n">
+        <v>4.45001518838817e-05</v>
+      </c>
+      <c r="F136" t="n">
         <v>-0.003098795499002079</v>
       </c>
-      <c r="F136" t="n">
+      <c r="G136" t="n">
         <v>32.97431328712374</v>
       </c>
     </row>
@@ -3992,12 +4402,15 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.1812618898091491</v>
+        <v>0.1812618898091493</v>
       </c>
       <c r="E137" t="n">
+        <v>2.261316528289126e-164</v>
+      </c>
+      <c r="F137" t="n">
         <v>0.1094538334729689</v>
       </c>
-      <c r="F137" t="n">
+      <c r="G137" t="n">
         <v>85.82216972093063</v>
       </c>
     </row>
@@ -4018,12 +4431,15 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.1398091110445205</v>
+        <v>0.13980911104452</v>
       </c>
       <c r="E138" t="n">
+        <v>1.387633108314473e-97</v>
+      </c>
+      <c r="F138" t="n">
         <v>0.0301783954453317</v>
       </c>
-      <c r="F138" t="n">
+      <c r="G138" t="n">
         <v>6.361851961171375</v>
       </c>
     </row>
@@ -4044,12 +4460,15 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>-0.02322951519321916</v>
+        <v>-0.02322951519321826</v>
       </c>
       <c r="E139" t="n">
+        <v>0.0005504672738606177</v>
+      </c>
+      <c r="F139" t="n">
         <v>-0.002160358829862576</v>
       </c>
-      <c r="F139" t="n">
+      <c r="G139" t="n">
         <v>11.42028526322102</v>
       </c>
     </row>
@@ -4070,12 +4489,15 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.0001854421784022137</v>
+        <v>0.0001854421784024891</v>
       </c>
       <c r="E140" t="n">
+        <v>0.9777183597026333</v>
+      </c>
+      <c r="F140" t="n">
         <v>4.774800520438613e-05</v>
       </c>
-      <c r="F140" t="n">
+      <c r="G140" t="n">
         <v>139.5327425582502</v>
       </c>
     </row>
@@ -4096,12 +4518,15 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.08940488043403008</v>
+        <v>0.08940488043402917</v>
       </c>
       <c r="E141" t="n">
+        <v>1.003656055566826e-40</v>
+      </c>
+      <c r="F141" t="n">
         <v>0.08244945349614292</v>
       </c>
-      <c r="F141" t="n">
+      <c r="G141" t="n">
         <v>51.78980647793087</v>
       </c>
     </row>
@@ -4122,12 +4547,15 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.07011196616787237</v>
+        <v>0.07011196616787393</v>
       </c>
       <c r="E142" t="n">
+        <v>1.461448764686392e-25</v>
+      </c>
+      <c r="F142" t="n">
         <v>12.36450468126591</v>
       </c>
-      <c r="F142" t="n">
+      <c r="G142" t="n">
         <v>-513.0725916803926</v>
       </c>
     </row>
@@ -4148,12 +4576,15 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>-0.002911841920665142</v>
+        <v>-0.002911841920665113</v>
       </c>
       <c r="E143" t="n">
+        <v>0.665014957164927</v>
+      </c>
+      <c r="F143" t="n">
         <v>-0.000641462143753469</v>
       </c>
-      <c r="F143" t="n">
+      <c r="G143" t="n">
         <v>14.04452224131282</v>
       </c>
     </row>
@@ -4174,12 +4605,15 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>-0.09273968487648143</v>
+        <v>-0.09273968487648428</v>
       </c>
       <c r="E144" t="n">
+        <v>7.009520717892062e-44</v>
+      </c>
+      <c r="F144" t="n">
         <v>-0.5562675139033624</v>
       </c>
-      <c r="F144" t="n">
+      <c r="G144" t="n">
         <v>264.2366934142173</v>
       </c>
     </row>
@@ -4200,12 +4634,15 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>-0.1897375650288817</v>
+        <v>-0.1897375650288797</v>
       </c>
       <c r="E145" t="n">
+        <v>3.339573392322936e-180</v>
+      </c>
+      <c r="F145" t="n">
         <v>-0.009086246132108766</v>
       </c>
-      <c r="F145" t="n">
+      <c r="G145" t="n">
         <v>5.115255924206966</v>
       </c>
     </row>
@@ -4226,12 +4663,15 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0.03749734797132032</v>
+        <v>0.03749734797131895</v>
       </c>
       <c r="E146" t="n">
+        <v>2.058890024364716e-08</v>
+      </c>
+      <c r="F146" t="n">
         <v>0.005018559694679933</v>
       </c>
-      <c r="F146" t="n">
+      <c r="G146" t="n">
         <v>13.61028616345833</v>
       </c>
     </row>
@@ -4252,12 +4692,15 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>-0.04163056514654267</v>
+        <v>-0.04163056514654367</v>
       </c>
       <c r="E147" t="n">
+        <v>3.548030555632041e-10</v>
+      </c>
+      <c r="F147" t="n">
         <v>-0.3794111513291966</v>
       </c>
-      <c r="F147" t="n">
+      <c r="G147" t="n">
         <v>174.3219649946812</v>
       </c>
     </row>
@@ -4278,12 +4721,15 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>-0.1774207067170235</v>
+        <v>-0.1774207067170163</v>
       </c>
       <c r="E148" t="n">
+        <v>8.333392044443533e-160</v>
+      </c>
+      <c r="F148" t="n">
         <v>-0.007360207534121275</v>
       </c>
-      <c r="F148" t="n">
+      <c r="G148" t="n">
         <v>7.387499947531822</v>
       </c>
     </row>
@@ -4304,12 +4750,15 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>-0.003708716783993671</v>
+        <v>-0.003708716783993288</v>
       </c>
       <c r="E149" t="n">
+        <v>0.579987589675494</v>
+      </c>
+      <c r="F149" t="n">
         <v>-0.0007675079147925911</v>
       </c>
-      <c r="F149" t="n">
+      <c r="G149" t="n">
         <v>6.8056467005934</v>
       </c>
     </row>
@@ -4330,12 +4779,15 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>-0.04191645098575145</v>
+        <v>-0.04191645098575057</v>
       </c>
       <c r="E150" t="n">
+        <v>3.200031980817972e-10</v>
+      </c>
+      <c r="F150" t="n">
         <v>-0.02296128406970723</v>
       </c>
-      <c r="F150" t="n">
+      <c r="G150" t="n">
         <v>3.482553567067672</v>
       </c>
     </row>
@@ -4356,12 +4808,15 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.2087348099328331</v>
+        <v>0.2087348099328255</v>
       </c>
       <c r="E151" t="n">
+        <v>7.078100483801953e-220</v>
+      </c>
+      <c r="F151" t="n">
         <v>0.2508858321661145</v>
       </c>
-      <c r="F151" t="n">
+      <c r="G151" t="n">
         <v>13.75381868296516</v>
       </c>
     </row>
@@ -4382,12 +4837,15 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>-0.1654368634832776</v>
+        <v>-0.165436863483286</v>
       </c>
       <c r="E152" t="n">
+        <v>1.40731227452152e-138</v>
+      </c>
+      <c r="F152" t="n">
         <v>-231.3895465151302</v>
       </c>
-      <c r="F152" t="n">
+      <c r="G152" t="n">
         <v>63525.13506397021</v>
       </c>
     </row>
@@ -4411,9 +4869,12 @@
         <v>0.02599900698153496</v>
       </c>
       <c r="E153" t="n">
+        <v>9.170712739539676e-05</v>
+      </c>
+      <c r="F153" t="n">
         <v>0.03786368309977956</v>
       </c>
-      <c r="F153" t="n">
+      <c r="G153" t="n">
         <v>1.949562340396658</v>
       </c>
     </row>
@@ -4434,12 +4895,15 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>-0.006523248055146335</v>
+        <v>-0.006523248055146507</v>
       </c>
       <c r="E154" t="n">
+        <v>0.3264615297601179</v>
+      </c>
+      <c r="F154" t="n">
         <v>-0.2492195070501054</v>
       </c>
-      <c r="F154" t="n">
+      <c r="G154" t="n">
         <v>607.799936834812</v>
       </c>
     </row>
@@ -4460,12 +4924,15 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>-0.003035514640615346</v>
+        <v>-0.00303551464061558</v>
       </c>
       <c r="E155" t="n">
+        <v>0.6479467035525852</v>
+      </c>
+      <c r="F155" t="n">
         <v>-0.01149966665897784</v>
       </c>
-      <c r="F155" t="n">
+      <c r="G155" t="n">
         <v>8.361997604473842</v>
       </c>
     </row>
@@ -4486,12 +4953,15 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0.06280688643473714</v>
+        <v>0.06280688643473947</v>
       </c>
       <c r="E156" t="n">
+        <v>3.168282299567699e-21</v>
+      </c>
+      <c r="F156" t="n">
         <v>11.82272623516509</v>
       </c>
-      <c r="F156" t="n">
+      <c r="G156" t="n">
         <v>1060.060232522659</v>
       </c>
     </row>
@@ -4512,12 +4982,15 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>-0.1939765999307343</v>
+        <v>-0.1939765999307454</v>
       </c>
       <c r="E157" t="n">
+        <v>9.645907839201944e-191</v>
+      </c>
+      <c r="F157" t="n">
         <v>-0.7061956827221991</v>
       </c>
-      <c r="F157" t="n">
+      <c r="G157" t="n">
         <v>152.0318029104492</v>
       </c>
     </row>
@@ -4538,12 +5011,15 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0.01033225365753214</v>
+        <v>0.01033225365753184</v>
       </c>
       <c r="E158" t="n">
+        <v>0.1796681451058168</v>
+      </c>
+      <c r="F158" t="n">
         <v>0.0004104103377833163</v>
       </c>
-      <c r="F158" t="n">
+      <c r="G158" t="n">
         <v>0.8542597996190476</v>
       </c>
     </row>
@@ -4564,12 +5040,15 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>-0.008681364681940194</v>
+        <v>-0.008681364681940347</v>
       </c>
       <c r="E159" t="n">
+        <v>0.2486715576702188</v>
+      </c>
+      <c r="F159" t="n">
         <v>-0.005205231090388427</v>
       </c>
-      <c r="F159" t="n">
+      <c r="G159" t="n">
         <v>13.85508947554805</v>
       </c>
     </row>
@@ -4590,12 +5069,15 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>-0.109828150494565</v>
+        <v>-0.1098281504945579</v>
       </c>
       <c r="E160" t="n">
+        <v>5.891362744588792e-52</v>
+      </c>
+      <c r="F160" t="n">
         <v>-100.6115272550076</v>
       </c>
-      <c r="F160" t="n">
+      <c r="G160" t="n">
         <v>43154.03512489598</v>
       </c>
     </row>
@@ -4616,12 +5098,15 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>-0.01186787285269235</v>
+        <v>-0.01186787285269143</v>
       </c>
       <c r="E161" t="n">
+        <v>0.1022649399398863</v>
+      </c>
+      <c r="F161" t="n">
         <v>-0.07449765038151632</v>
       </c>
-      <c r="F161" t="n">
+      <c r="G161" t="n">
         <v>225.8639228129365</v>
       </c>
     </row>
@@ -4642,12 +5127,15 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0.07974030727210336</v>
+        <v>0.07974030727210511</v>
       </c>
       <c r="E162" t="n">
+        <v>1.269995549103015e-30</v>
+      </c>
+      <c r="F162" t="n">
         <v>0.0002838775577973587</v>
       </c>
-      <c r="F162" t="n">
+      <c r="G162" t="n">
         <v>0.03082332285637447</v>
       </c>
     </row>
@@ -4668,12 +5156,15 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.06602824144443049</v>
+        <v>0.06602824144443163</v>
       </c>
       <c r="E163" t="n">
+        <v>1.755796634338372e-21</v>
+      </c>
+      <c r="F163" t="n">
         <v>0.0001727070499489434</v>
       </c>
-      <c r="F163" t="n">
+      <c r="G163" t="n">
         <v>0.02404502851161362</v>
       </c>
     </row>
@@ -4694,12 +5185,15 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0.02832230613849406</v>
+        <v>0.02832230613849372</v>
       </c>
       <c r="E164" t="n">
+        <v>4.517549586167039e-05</v>
+      </c>
+      <c r="F164" t="n">
         <v>2.142139159622741e-05</v>
       </c>
-      <c r="F164" t="n">
+      <c r="G164" t="n">
         <v>0.005365542778983043</v>
       </c>
     </row>
@@ -4720,12 +5214,15 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.06964062794872226</v>
+        <v>0.06964062794872472</v>
       </c>
       <c r="E165" t="n">
+        <v>9.913040714599663e-24</v>
+      </c>
+      <c r="F165" t="n">
         <v>0.001149943906932183</v>
       </c>
-      <c r="F165" t="n">
+      <c r="G165" t="n">
         <v>0.1567196819847963</v>
       </c>
     </row>
@@ -4746,12 +5243,15 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0.01485254332630168</v>
+        <v>0.01485254332630231</v>
       </c>
       <c r="E166" t="n">
+        <v>0.03240955533909619</v>
+      </c>
+      <c r="F166" t="n">
         <v>3.373195325137028e-06</v>
       </c>
-      <c r="F166" t="n">
+      <c r="G166" t="n">
         <v>0.001462678313875939</v>
       </c>
     </row>
@@ -4772,12 +5272,15 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0.06679721252252582</v>
+        <v>0.06679721252252649</v>
       </c>
       <c r="E167" t="n">
+        <v>5.884805495116196e-22</v>
+      </c>
+      <c r="F167" t="n">
         <v>0.001067630099754076</v>
       </c>
-      <c r="F167" t="n">
+      <c r="G167" t="n">
         <v>0.1493312377806357</v>
       </c>
     </row>
@@ -4798,12 +5301,15 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0.1081831296849588</v>
+        <v>0.1081831296849602</v>
       </c>
       <c r="E168" t="n">
+        <v>4.734096467909297e-55</v>
+      </c>
+      <c r="F168" t="n">
         <v>0.001547468303059727</v>
       </c>
-      <c r="F168" t="n">
+      <c r="G168" t="n">
         <v>0.08566021214423848</v>
       </c>
     </row>
@@ -4824,12 +5330,15 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.1079009763801689</v>
+        <v>0.1079009763801673</v>
       </c>
       <c r="E169" t="n">
+        <v>9.106683591453341e-55</v>
+      </c>
+      <c r="F169" t="n">
         <v>0.00147130848831224</v>
       </c>
-      <c r="F169" t="n">
+      <c r="G169" t="n">
         <v>0.08041892961158777</v>
       </c>
     </row>
@@ -4850,12 +5359,15 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0.08868948004398718</v>
+        <v>0.08868948004398643</v>
       </c>
       <c r="E170" t="n">
+        <v>1.671219077637273e-37</v>
+      </c>
+      <c r="F170" t="n">
         <v>0.0001193997089509736</v>
       </c>
-      <c r="F170" t="n">
+      <c r="G170" t="n">
         <v>-0.0007799277773765795</v>
       </c>
     </row>
@@ -4876,12 +5388,15 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>-0.001126312504319032</v>
+        <v>-0.00112631250431916</v>
       </c>
       <c r="E171" t="n">
+        <v>0.8701066511390732</v>
+      </c>
+      <c r="F171" t="n">
         <v>-1.358970309206725e-05</v>
       </c>
-      <c r="F171" t="n">
+      <c r="G171" t="n">
         <v>0.7138622791555672</v>
       </c>
     </row>
@@ -4902,12 +5417,15 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>-0.05017626293264257</v>
+        <v>-0.050176262932644</v>
       </c>
       <c r="E172" t="n">
+        <v>3.113376231275006e-13</v>
+      </c>
+      <c r="F172" t="n">
         <v>-0.000417806742842359</v>
       </c>
-      <c r="F172" t="n">
+      <c r="G172" t="n">
         <v>0.179484848535661</v>
       </c>
     </row>
@@ -4928,12 +5446,15 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>-0.02624470152907138</v>
+        <v>-0.02624470152907136</v>
       </c>
       <c r="E173" t="n">
+        <v>0.0001380144100392015</v>
+      </c>
+      <c r="F173" t="n">
         <v>-3.770858013932736e-05</v>
       </c>
-      <c r="F173" t="n">
+      <c r="G173" t="n">
         <v>0.01114679123115636</v>
       </c>
     </row>
@@ -4954,12 +5475,15 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0.004945684849723827</v>
+        <v>0.004945684849723834</v>
       </c>
       <c r="E174" t="n">
+        <v>0.4726483083866809</v>
+      </c>
+      <c r="F174" t="n">
         <v>3.345104555890604e-05</v>
       </c>
-      <c r="F174" t="n">
+      <c r="G174" t="n">
         <v>0.9317111164267406</v>
       </c>
     </row>
@@ -4980,12 +5504,15 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0.02617113176096027</v>
+        <v>0.02617113176096029</v>
       </c>
       <c r="E175" t="n">
+        <v>0.0001442117170347778</v>
+      </c>
+      <c r="F175" t="n">
         <v>0.0002181666589640196</v>
       </c>
-      <c r="F175" t="n">
+      <c r="G175" t="n">
         <v>0.9361910555105444</v>
       </c>
     </row>
@@ -5006,12 +5533,15 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0.06828318018737514</v>
+        <v>0.06828318018737561</v>
       </c>
       <c r="E176" t="n">
+        <v>3.187928152399563e-23</v>
+      </c>
+      <c r="F176" t="n">
         <v>0.0002552880166339949</v>
       </c>
-      <c r="F176" t="n">
+      <c r="G176" t="n">
         <v>0.02094471404715425</v>
       </c>
     </row>
@@ -5032,12 +5562,15 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>-0.01107908842521983</v>
+        <v>-0.01107908842521967</v>
       </c>
       <c r="E177" t="n">
+        <v>0.1054269072054244</v>
+      </c>
+      <c r="F177" t="n">
         <v>-0.0009817210713558644</v>
       </c>
-      <c r="F177" t="n">
+      <c r="G177" t="n">
         <v>0.2229078357933221</v>
       </c>
     </row>
@@ -5058,12 +5591,15 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>-0.07749520428359699</v>
+        <v>-0.07749520428359857</v>
       </c>
       <c r="E178" t="n">
+        <v>1.008179912846752e-24</v>
+      </c>
+      <c r="F178" t="n">
         <v>-0.0001863503194342731</v>
       </c>
-      <c r="F178" t="n">
+      <c r="G178" t="n">
         <v>0.03930686271160654</v>
       </c>
     </row>
@@ -5084,12 +5620,15 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>-0.2144832368793739</v>
+        <v>-0.214483236879378</v>
       </c>
       <c r="E179" t="n">
+        <v>4.604513594350011e-220</v>
+      </c>
+      <c r="F179" t="n">
         <v>-0.004091999603844811</v>
       </c>
-      <c r="F179" t="n">
+      <c r="G179" t="n">
         <v>0.6292226245934911</v>
       </c>
     </row>
@@ -5110,12 +5649,15 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>-0.1500007547691131</v>
+        <v>-0.1500007547691138</v>
       </c>
       <c r="E180" t="n">
+        <v>1.061589180251448e-107</v>
+      </c>
+      <c r="F180" t="n">
         <v>-0.003609040096204274</v>
       </c>
-      <c r="F180" t="n">
+      <c r="G180" t="n">
         <v>0.5868326114134588</v>
       </c>
     </row>
@@ -5136,12 +5678,15 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>-0.05096312744912342</v>
+        <v>-0.05096312744912313</v>
       </c>
       <c r="E181" t="n">
+        <v>9.979388381448024e-14</v>
+      </c>
+      <c r="F181" t="n">
         <v>-0.0003050554481088781</v>
       </c>
-      <c r="F181" t="n">
+      <c r="G181" t="n">
         <v>0.05467840079888699</v>
       </c>
     </row>
@@ -5162,12 +5707,15 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>-0.1601178022434351</v>
+        <v>-0.1601178022434341</v>
       </c>
       <c r="E182" t="n">
+        <v>1.227763080963331e-122</v>
+      </c>
+      <c r="F182" t="n">
         <v>-0.006876936869523745</v>
       </c>
-      <c r="F182" t="n">
+      <c r="G182" t="n">
         <v>1.417910132276294</v>
       </c>
     </row>
@@ -5188,12 +5736,15 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0.001280063461374166</v>
+        <v>0.00128006346137416</v>
       </c>
       <c r="E183" t="n">
+        <v>0.8517663017138281</v>
+      </c>
+      <c r="F183" t="n">
         <v>1.215765286081765e-05</v>
       </c>
-      <c r="F183" t="n">
+      <c r="G183" t="n">
         <v>0.01805919778218073</v>
       </c>
     </row>
@@ -5214,12 +5765,15 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>-0.001703106416187635</v>
+        <v>-0.001703106416187659</v>
       </c>
       <c r="E184" t="n">
+        <v>0.8036534708324931</v>
+      </c>
+      <c r="F184" t="n">
         <v>-7.155549434596346e-05</v>
       </c>
-      <c r="F184" t="n">
+      <c r="G184" t="n">
         <v>0.02365514701182264</v>
       </c>
     </row>
@@ -5240,12 +5794,15 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>-0.3647939930827088</v>
+        <v>-0.3647939930826973</v>
       </c>
       <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
         <v>-0.002192083929153483</v>
       </c>
-      <c r="F185" t="n">
+      <c r="G185" t="n">
         <v>0.2152366452957359</v>
       </c>
     </row>
@@ -5266,12 +5823,15 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>-0.03942137442718802</v>
+        <v>-0.03942137442718848</v>
       </c>
       <c r="E186" t="n">
+        <v>8.692494887568982e-09</v>
+      </c>
+      <c r="F186" t="n">
         <v>-0.001111874822731148</v>
       </c>
-      <c r="F186" t="n">
+      <c r="G186" t="n">
         <v>0.4920063456477056</v>
       </c>
     </row>
@@ -5292,12 +5852,15 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>-0.1955106715851626</v>
+        <v>-0.195510671585156</v>
       </c>
       <c r="E187" t="n">
+        <v>5.092607197040498e-183</v>
+      </c>
+      <c r="F187" t="n">
         <v>-0.01129522823540117</v>
       </c>
-      <c r="F187" t="n">
+      <c r="G187" t="n">
         <v>2.15885808211289</v>
       </c>
     </row>
@@ -5318,12 +5881,15 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>-0.1108119572568217</v>
+        <v>-0.1108119572568201</v>
       </c>
       <c r="E188" t="n">
+        <v>3.278794101833875e-59</v>
+      </c>
+      <c r="F188" t="n">
         <v>-0.001156531383648007</v>
       </c>
-      <c r="F188" t="n">
+      <c r="G188" t="n">
         <v>0.1715012579536687</v>
       </c>
     </row>
@@ -5344,12 +5910,15 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>-0.07615816330880694</v>
+        <v>-0.07615816330880491</v>
       </c>
       <c r="E189" t="n">
+        <v>2.902562322792006e-29</v>
+      </c>
+      <c r="F189" t="n">
         <v>-0.0003331555758053301</v>
       </c>
-      <c r="F189" t="n">
+      <c r="G189" t="n">
         <v>0.09078021635211347</v>
       </c>
     </row>
@@ -5370,12 +5939,15 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>-0.04910045337261481</v>
+        <v>-0.04910045337261279</v>
       </c>
       <c r="E190" t="n">
+        <v>4.687609337400727e-13</v>
+      </c>
+      <c r="F190" t="n">
         <v>-0.0005213411527603474</v>
       </c>
-      <c r="F190" t="n">
+      <c r="G190" t="n">
         <v>0.2775391005002152</v>
       </c>
     </row>
@@ -5396,12 +5968,15 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>0.03863320193276009</v>
+        <v>0.03863320193275872</v>
       </c>
       <c r="E191" t="n">
+        <v>1.265991704211501e-08</v>
+      </c>
+      <c r="F191" t="n">
         <v>0.0004782059355123141</v>
       </c>
-      <c r="F191" t="n">
+      <c r="G191" t="n">
         <v>0.653398017519905</v>
       </c>
     </row>
@@ -5422,12 +5997,15 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>-0.1550445817460476</v>
+        <v>-0.1550445817460454</v>
       </c>
       <c r="E192" t="n">
+        <v>9.685126734156213e-117</v>
+      </c>
+      <c r="F192" t="n">
         <v>-0.001918812989011698</v>
       </c>
-      <c r="F192" t="n">
+      <c r="G192" t="n">
         <v>0.8244433778864655</v>
       </c>
     </row>
@@ -5448,12 +6026,15 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>-0.0506787439184123</v>
+        <v>-0.05067874391841314</v>
       </c>
       <c r="E193" t="n">
+        <v>8.70923778245387e-14</v>
+      </c>
+      <c r="F193" t="n">
         <v>-0.0008031178009509826</v>
       </c>
-      <c r="F193" t="n">
+      <c r="G193" t="n">
         <v>0.7022877466218611</v>
       </c>
     </row>
@@ -5474,12 +6055,15 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0.07563709527530955</v>
+        <v>0.07563709527531262</v>
       </c>
       <c r="E194" t="n">
+        <v>1.037078037812622e-27</v>
+      </c>
+      <c r="F194" t="n">
         <v>0.0001887099795932963</v>
       </c>
-      <c r="F194" t="n">
+      <c r="G194" t="n">
         <v>0.02344500014061029</v>
       </c>
     </row>
@@ -5500,12 +6084,15 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0.1159889859108631</v>
+        <v>0.1159889859108675</v>
       </c>
       <c r="E195" t="n">
+        <v>4.593928437868606e-63</v>
+      </c>
+      <c r="F195" t="n">
         <v>0.0002220389981009989</v>
       </c>
-      <c r="F195" t="n">
+      <c r="G195" t="n">
         <v>0.01339809761421077</v>
       </c>
     </row>
@@ -5526,12 +6113,15 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0.07159802935567743</v>
+        <v>0.07159802935567897</v>
       </c>
       <c r="E196" t="n">
+        <v>5.404674374120702e-25</v>
+      </c>
+      <c r="F196" t="n">
         <v>3.811956105266634e-05</v>
       </c>
-      <c r="F196" t="n">
+      <c r="G196" t="n">
         <v>0.005136604757418421</v>
       </c>
     </row>
@@ -5552,12 +6142,15 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>-0.004309309195704808</v>
+        <v>-0.004309309195705237</v>
       </c>
       <c r="E197" t="n">
+        <v>0.5979616133720599</v>
+      </c>
+      <c r="F197" t="n">
         <v>-0.0003903308891897595</v>
       </c>
-      <c r="F197" t="n">
+      <c r="G197" t="n">
         <v>5.941129348849931</v>
       </c>
     </row>
@@ -5578,12 +6171,15 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0.1120572222797453</v>
+        <v>0.1120572222797498</v>
       </c>
       <c r="E198" t="n">
+        <v>6.798850400772663e-45</v>
+      </c>
+      <c r="F198" t="n">
         <v>0.1907841815048844</v>
       </c>
-      <c r="F198" t="n">
+      <c r="G198" t="n">
         <v>41.84351059104136</v>
       </c>
     </row>
@@ -5604,12 +6200,15 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>-0.06870940035540044</v>
+        <v>-0.0687094003553987</v>
       </c>
       <c r="E199" t="n">
+        <v>3.385578927222864e-18</v>
+      </c>
+      <c r="F199" t="n">
         <v>-0.2604721080298058</v>
       </c>
-      <c r="F199" t="n">
+      <c r="G199" t="n">
         <v>206.295556362687</v>
       </c>
     </row>
@@ -5630,12 +6229,15 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>0.0184980474492023</v>
+        <v>0.01849804744920309</v>
       </c>
       <c r="E200" t="n">
+        <v>0.01886549797816403</v>
+      </c>
+      <c r="F200" t="n">
         <v>0.007067987239732202</v>
       </c>
-      <c r="F200" t="n">
+      <c r="G200" t="n">
         <v>2.812035051530906</v>
       </c>
     </row>
@@ -5656,12 +6258,15 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0.2041888407558131</v>
+        <v>0.2041888407558086</v>
       </c>
       <c r="E201" t="n">
+        <v>6.365479149983242e-151</v>
+      </c>
+      <c r="F201" t="n">
         <v>0.01033769221128697</v>
       </c>
-      <c r="F201" t="n">
+      <c r="G201" t="n">
         <v>0.4134131626612362</v>
       </c>
     </row>
@@ -5682,12 +6287,15 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>-0.6348650726810225</v>
+        <v>-0.6348650726810476</v>
       </c>
       <c r="E202" t="n">
+        <v>0</v>
+      </c>
+      <c r="F202" t="n">
         <v>-17426346.89544266</v>
       </c>
-      <c r="F202" t="n">
+      <c r="G202" t="n">
         <v>1505374895.223154</v>
       </c>
     </row>
@@ -5708,12 +6316,15 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>-0.6348650672872654</v>
+        <v>-0.6348650672872926</v>
       </c>
       <c r="E203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" t="n">
         <v>-17426.34694498662</v>
       </c>
-      <c r="F203" t="n">
+      <c r="G203" t="n">
         <v>1505374.881504479</v>
       </c>
     </row>
@@ -5734,12 +6345,15 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>-0.02994802777057386</v>
+        <v>-0.02994802777057375</v>
       </c>
       <c r="E204" t="n">
+        <v>5.637372458147694e-06</v>
+      </c>
+      <c r="F204" t="n">
         <v>-0.2279613396422597</v>
       </c>
-      <c r="F204" t="n">
+      <c r="G204" t="n">
         <v>206.7770052859266</v>
       </c>
     </row>
@@ -5760,12 +6374,15 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>0.05326957135025987</v>
+        <v>0.05326957135026922</v>
       </c>
       <c r="E205" t="n">
+        <v>1.781561688408759e-13</v>
+      </c>
+      <c r="F205" t="n">
         <v>0.0003047783272217109</v>
       </c>
-      <c r="F205" t="n">
+      <c r="G205" t="n">
         <v>0.03292010193960994</v>
       </c>
     </row>
@@ -5786,12 +6403,15 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>0.05527221715993283</v>
+        <v>0.05527221715993472</v>
       </c>
       <c r="E206" t="n">
+        <v>2.146826222157369e-14</v>
+      </c>
+      <c r="F206" t="n">
         <v>0.0008429164194478492</v>
       </c>
-      <c r="F206" t="n">
+      <c r="G206" t="n">
         <v>0.1624744909966816</v>
       </c>
     </row>
@@ -5812,12 +6432,15 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>-0.1213984384535208</v>
+        <v>-0.1213984384535294</v>
       </c>
       <c r="E207" t="n">
+        <v>1.529439704195227e-65</v>
+      </c>
+      <c r="F207" t="n">
         <v>-0.003933309780448558</v>
       </c>
-      <c r="F207" t="n">
+      <c r="G207" t="n">
         <v>4.175308184654754</v>
       </c>
     </row>
@@ -5838,12 +6461,15 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>-0.01552822488594061</v>
+        <v>-0.01552822488594091</v>
       </c>
       <c r="E208" t="n">
+        <v>0.02932864612891061</v>
+      </c>
+      <c r="F208" t="n">
         <v>-0.04623521657522219</v>
       </c>
-      <c r="F208" t="n">
+      <c r="G208" t="n">
         <v>86.63186717311429</v>
       </c>
     </row>
@@ -5864,12 +6490,15 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>-0.1758649597026633</v>
+        <v>-0.1758649597026651</v>
       </c>
       <c r="E209" t="n">
+        <v>2.253733815023091e-136</v>
+      </c>
+      <c r="F209" t="n">
         <v>-0.2990739696532365</v>
       </c>
-      <c r="F209" t="n">
+      <c r="G209" t="n">
         <v>41.25578370457633</v>
       </c>
     </row>
@@ -5890,12 +6519,15 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>-0.04755641546388346</v>
+        <v>-0.04755641546388352</v>
       </c>
       <c r="E210" t="n">
+        <v>4.915295822110776e-11</v>
+      </c>
+      <c r="F210" t="n">
         <v>-0.007247944286344034</v>
       </c>
-      <c r="F210" t="n">
+      <c r="G210" t="n">
         <v>2.605175990005011</v>
       </c>
     </row>
@@ -5916,12 +6548,15 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>0.1184371224590301</v>
+        <v>0.1184371224590331</v>
       </c>
       <c r="E211" t="n">
+        <v>1.386793396238469e-60</v>
+      </c>
+      <c r="F211" t="n">
         <v>0.002462069399314686</v>
       </c>
-      <c r="F211" t="n">
+      <c r="G211" t="n">
         <v>0.4087381427532301</v>
       </c>
     </row>
@@ -5942,12 +6577,15 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>0.002970276787686194</v>
+        <v>0.002970276787685909</v>
       </c>
       <c r="E212" t="n">
+        <v>0.6815604215501472</v>
+      </c>
+      <c r="F212" t="n">
         <v>0.0004596117304590746</v>
       </c>
-      <c r="F212" t="n">
+      <c r="G212" t="n">
         <v>3.974570979505484</v>
       </c>
     </row>
@@ -5968,12 +6606,15 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>-0.11942833274356</v>
+        <v>-0.1194283327435601</v>
       </c>
       <c r="E213" t="n">
+        <v>7.098861494433085e-63</v>
+      </c>
+      <c r="F213" t="n">
         <v>-0.2044481183066292</v>
       </c>
-      <c r="F213" t="n">
+      <c r="G213" t="n">
         <v>36.73382845909244</v>
       </c>
     </row>
@@ -5994,12 +6635,15 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>0.02936015981450565</v>
+        <v>0.02936015981450587</v>
       </c>
       <c r="E214" t="n">
+        <v>4.973207433300415e-05</v>
+      </c>
+      <c r="F214" t="n">
         <v>0.001727785090935091</v>
       </c>
-      <c r="F214" t="n">
+      <c r="G214" t="n">
         <v>0.7387881238873157</v>
       </c>
     </row>
@@ -6020,12 +6664,15 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>0.0583057117244392</v>
+        <v>0.05830571172444039</v>
       </c>
       <c r="E215" t="n">
+        <v>2.936757335450199e-16</v>
+      </c>
+      <c r="F215" t="n">
         <v>0.001487459960749922</v>
       </c>
-      <c r="F215" t="n">
+      <c r="G215" t="n">
         <v>0.3468357636515806</v>
       </c>
     </row>
@@ -6046,12 +6693,15 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>0.2610896733025381</v>
+        <v>0.2610896733025838</v>
       </c>
       <c r="E216" t="n">
+        <v>2.831976350982849e-304</v>
+      </c>
+      <c r="F216" t="n">
         <v>0.1711237923837123</v>
       </c>
-      <c r="F216" t="n">
+      <c r="G216" t="n">
         <v>5.786304597225515</v>
       </c>
     </row>
@@ -6072,12 +6722,15 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>-0.004321141882056597</v>
+        <v>-0.004321141882056614</v>
       </c>
       <c r="E217" t="n">
+        <v>0.5443692382351182</v>
+      </c>
+      <c r="F217" t="n">
         <v>-0.0001641795287687786</v>
       </c>
-      <c r="F217" t="n">
+      <c r="G217" t="n">
         <v>9.312357085482738</v>
       </c>
     </row>
@@ -6098,12 +6751,15 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>-0.09854602846422021</v>
+        <v>-0.09854602846422715</v>
       </c>
       <c r="E218" t="n">
+        <v>1.076188768423061e-43</v>
+      </c>
+      <c r="F218" t="n">
         <v>-0.3913039901666327</v>
       </c>
-      <c r="F218" t="n">
+      <c r="G218" t="n">
         <v>214.131837797848</v>
       </c>
     </row>
@@ -6124,12 +6780,15 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>-0.01445341825182334</v>
+        <v>-0.01445341825182513</v>
       </c>
       <c r="E219" t="n">
+        <v>0.04253467189819391</v>
+      </c>
+      <c r="F219" t="n">
         <v>-0.004408957143245891</v>
       </c>
-      <c r="F219" t="n">
+      <c r="G219" t="n">
         <v>100.9706091127549</v>
       </c>
     </row>
@@ -6150,12 +6809,15 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>-0.071638845047545</v>
+        <v>-0.0716388450475457</v>
       </c>
       <c r="E220" t="n">
+        <v>8.160592784026501e-24</v>
+      </c>
+      <c r="F220" t="n">
         <v>-2.898207182000707</v>
       </c>
-      <c r="F220" t="n">
+      <c r="G220" t="n">
         <v>531.9241812153734</v>
       </c>
     </row>
@@ -6176,12 +6838,15 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>0.1129094883033153</v>
+        <v>0.1129094883033004</v>
       </c>
       <c r="E221" t="n">
+        <v>7.315633986152251e-57</v>
+      </c>
+      <c r="F221" t="n">
         <v>0.02865489902334347</v>
       </c>
-      <c r="F221" t="n">
+      <c r="G221" t="n">
         <v>22.20129777929581</v>
       </c>
     </row>
@@ -6202,12 +6867,15 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>0.08119562006751121</v>
+        <v>0.08119562006751314</v>
       </c>
       <c r="E222" t="n">
+        <v>3.458736452386503e-30</v>
+      </c>
+      <c r="F222" t="n">
         <v>0.00486896179141161</v>
       </c>
-      <c r="F222" t="n">
+      <c r="G222" t="n">
         <v>0.6385289439642323</v>
       </c>
     </row>
@@ -6228,12 +6896,15 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>0.02475345387476431</v>
+        <v>0.02475345387476717</v>
       </c>
       <c r="E223" t="n">
+        <v>0.0005127471672362678</v>
+      </c>
+      <c r="F223" t="n">
         <v>0.02623775013233658</v>
       </c>
-      <c r="F223" t="n">
+      <c r="G223" t="n">
         <v>3.514647918880671</v>
       </c>
     </row>
@@ -6254,12 +6925,15 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>0.2288569645137681</v>
+        <v>0.2288569645137964</v>
       </c>
       <c r="E224" t="n">
+        <v>2.329657246760753e-232</v>
+      </c>
+      <c r="F224" t="n">
         <v>0.01229895321683058</v>
       </c>
-      <c r="F224" t="n">
+      <c r="G224" t="n">
         <v>0.3443189221370302</v>
       </c>
     </row>
@@ -6280,12 +6954,15 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>-0.3127745838633656</v>
+        <v>-0.312774583863375</v>
       </c>
       <c r="E225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F225" t="n">
         <v>-0.07188567970150267</v>
       </c>
-      <c r="F225" t="n">
+      <c r="G225" t="n">
         <v>7.328522084837178</v>
       </c>
     </row>
@@ -6309,9 +6986,12 @@
         <v>0.08539476043919568</v>
       </c>
       <c r="E226" t="n">
+        <v>3.128799394360008e-32</v>
+      </c>
+      <c r="F226" t="n">
         <v>0.01782009109738453</v>
       </c>
-      <c r="F226" t="n">
+      <c r="G226" t="n">
         <v>1.995300683754861</v>
       </c>
     </row>
@@ -6332,12 +7012,15 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>-0.05875275357763321</v>
+        <v>-0.05875275357762995</v>
       </c>
       <c r="E227" t="n">
+        <v>1.589317083695496e-16</v>
+      </c>
+      <c r="F227" t="n">
         <v>-1.166412959865307</v>
       </c>
-      <c r="F227" t="n">
+      <c r="G227" t="n">
         <v>226.8976836110208</v>
       </c>
     </row>
@@ -6358,12 +7041,15 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>0.002782325362565429</v>
+        <v>0.002782325362565626</v>
       </c>
       <c r="E228" t="n">
+        <v>0.6963986075173391</v>
+      </c>
+      <c r="F228" t="n">
         <v>0.0134389849865777</v>
       </c>
-      <c r="F228" t="n">
+      <c r="G228" t="n">
         <v>113.2636038871727</v>
       </c>
     </row>
@@ -6384,12 +7070,15 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>-0.1100202711976688</v>
+        <v>-0.1100202711976706</v>
       </c>
       <c r="E229" t="n">
+        <v>6.339722535967498e-53</v>
+      </c>
+      <c r="F229" t="n">
         <v>-0.04641825888903001</v>
       </c>
-      <c r="F229" t="n">
+      <c r="G229" t="n">
         <v>44.71409467482464</v>
       </c>
     </row>
@@ -6410,12 +7099,15 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>-0.01620465509081002</v>
+        <v>-0.0162046550908112</v>
       </c>
       <c r="E230" t="n">
+        <v>0.02296402927501106</v>
+      </c>
+      <c r="F230" t="n">
         <v>-0.03265895844671159</v>
       </c>
-      <c r="F230" t="n">
+      <c r="G230" t="n">
         <v>58.25168865456578</v>
       </c>
     </row>
@@ -6436,12 +7128,15 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>-0.1341696500552696</v>
+        <v>-0.134169650055269</v>
       </c>
       <c r="E231" t="n">
+        <v>4.805358118776585e-78</v>
+      </c>
+      <c r="F231" t="n">
         <v>-0.01969293293597248</v>
       </c>
-      <c r="F231" t="n">
+      <c r="G231" t="n">
         <v>14.91339479233468</v>
       </c>
     </row>
@@ -6462,12 +7157,15 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>0.06200454193481029</v>
+        <v>0.0620045419348076</v>
       </c>
       <c r="E232" t="n">
+        <v>3.300586238322244e-18</v>
+      </c>
+      <c r="F232" t="n">
         <v>0.002642837527464293</v>
       </c>
-      <c r="F232" t="n">
+      <c r="G232" t="n">
         <v>3.993586689789674</v>
       </c>
     </row>
@@ -6488,12 +7186,15 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>-0.07210070486931039</v>
+        <v>-0.07210070486931439</v>
       </c>
       <c r="E233" t="n">
+        <v>1.588385581170798e-23</v>
+      </c>
+      <c r="F233" t="n">
         <v>-0.2503681761191681</v>
       </c>
-      <c r="F233" t="n">
+      <c r="G233" t="n">
         <v>118.2461326301989</v>
       </c>
     </row>
@@ -6514,12 +7215,15 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>-0.152325333983276</v>
+        <v>-0.1523253339832774</v>
       </c>
       <c r="E234" t="n">
+        <v>1.929870700166504e-99</v>
+      </c>
+      <c r="F234" t="n">
         <v>-0.1440883257661583</v>
       </c>
-      <c r="F234" t="n">
+      <c r="G234" t="n">
         <v>40.1620440238218</v>
       </c>
     </row>
@@ -6540,12 +7244,15 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>0.04818030178785359</v>
+        <v>0.04818030178785487</v>
       </c>
       <c r="E235" t="n">
+        <v>2.475627936995767e-11</v>
+      </c>
+      <c r="F235" t="n">
         <v>0.01027656642023568</v>
       </c>
-      <c r="F235" t="n">
+      <c r="G235" t="n">
         <v>29.59639115356929</v>
       </c>
     </row>
@@ -6566,12 +7273,15 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>-0.08405256936118276</v>
+        <v>-0.08405256936118558</v>
       </c>
       <c r="E236" t="n">
+        <v>2.614507573304656e-31</v>
+      </c>
+      <c r="F236" t="n">
         <v>-0.01027517761646892</v>
       </c>
-      <c r="F236" t="n">
+      <c r="G236" t="n">
         <v>33.39370986143253</v>
       </c>
     </row>
@@ -6592,12 +7302,15 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>0.1077954799943255</v>
+        <v>0.1077954799943267</v>
       </c>
       <c r="E237" t="n">
+        <v>7.436108909248572e-51</v>
+      </c>
+      <c r="F237" t="n">
         <v>0.07053313528553018</v>
       </c>
-      <c r="F237" t="n">
+      <c r="G237" t="n">
         <v>87.94622952991205</v>
       </c>
     </row>
@@ -6618,12 +7331,15 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>0.1748866766031952</v>
+        <v>0.1748866766031902</v>
       </c>
       <c r="E238" t="n">
+        <v>6.106164534628542e-131</v>
+      </c>
+      <c r="F238" t="n">
         <v>0.0427226060795929</v>
       </c>
-      <c r="F238" t="n">
+      <c r="G238" t="n">
         <v>5.516764488088178</v>
       </c>
     </row>
@@ -6644,12 +7360,15 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>0.006084239145064761</v>
+        <v>0.006084239145064953</v>
       </c>
       <c r="E239" t="n">
+        <v>0.401194695264126</v>
+      </c>
+      <c r="F239" t="n">
         <v>0.0005911378751040437</v>
       </c>
-      <c r="F239" t="n">
+      <c r="G239" t="n">
         <v>11.19340142553973</v>
       </c>
     </row>
@@ -6670,12 +7389,15 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>-0.006942081311217762</v>
+        <v>-0.006942081311218477</v>
       </c>
       <c r="E240" t="n">
+        <v>0.3299848881807489</v>
+      </c>
+      <c r="F240" t="n">
         <v>-0.001892389741996178</v>
       </c>
-      <c r="F240" t="n">
+      <c r="G240" t="n">
         <v>139.6130097622908</v>
       </c>
     </row>
@@ -6696,12 +7418,15 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>0.08049694240903793</v>
+        <v>0.0804969424090375</v>
       </c>
       <c r="E241" t="n">
+        <v>8.151508464317298e-29</v>
+      </c>
+      <c r="F241" t="n">
         <v>0.08198332916659215</v>
       </c>
-      <c r="F241" t="n">
+      <c r="G241" t="n">
         <v>51.58980470232208</v>
       </c>
     </row>
@@ -6722,12 +7447,15 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>0.04523803629044624</v>
+        <v>0.04523803629044666</v>
       </c>
       <c r="E242" t="n">
+        <v>3.975729752509758e-10</v>
+      </c>
+      <c r="F242" t="n">
         <v>9.883319443153985</v>
       </c>
-      <c r="F242" t="n">
+      <c r="G242" t="n">
         <v>-285.6797258697541</v>
       </c>
     </row>
@@ -6748,12 +7476,15 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>0.008472516092021699</v>
+        <v>0.008472516092021095</v>
       </c>
       <c r="E243" t="n">
+        <v>0.2424910723571962</v>
+      </c>
+      <c r="F243" t="n">
         <v>0.001948075295053691</v>
       </c>
-      <c r="F243" t="n">
+      <c r="G243" t="n">
         <v>13.76689917234929</v>
       </c>
     </row>
@@ -6774,12 +7505,15 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>-0.09863803304338915</v>
+        <v>-0.0986380330433852</v>
       </c>
       <c r="E244" t="n">
+        <v>8.996123943975318e-43</v>
+      </c>
+      <c r="F244" t="n">
         <v>-0.6636122053207989</v>
       </c>
-      <c r="F244" t="n">
+      <c r="G244" t="n">
         <v>278.8294738770896</v>
       </c>
     </row>
@@ -6800,12 +7534,15 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>-0.1675939037830453</v>
+        <v>-0.1675939037830513</v>
       </c>
       <c r="E245" t="n">
+        <v>2.67084376364277e-121</v>
+      </c>
+      <c r="F245" t="n">
         <v>-0.00832168850723515</v>
       </c>
-      <c r="F245" t="n">
+      <c r="G245" t="n">
         <v>5.066410490221262</v>
       </c>
     </row>
@@ -6826,12 +7563,15 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>0.06570832803811233</v>
+        <v>0.06570832803811544</v>
       </c>
       <c r="E246" t="n">
+        <v>7.034783576057637e-20</v>
+      </c>
+      <c r="F246" t="n">
         <v>0.009208950388031059</v>
       </c>
-      <c r="F246" t="n">
+      <c r="G246" t="n">
         <v>13.45216553169397</v>
       </c>
     </row>
@@ -6852,12 +7592,15 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>-0.05463272556067267</v>
+        <v>-0.0546327255606771</v>
       </c>
       <c r="E247" t="n">
+        <v>1.694022863993785e-14</v>
+      </c>
+      <c r="F247" t="n">
         <v>-0.5248490371965743</v>
       </c>
-      <c r="F247" t="n">
+      <c r="G247" t="n">
         <v>190.837638892512</v>
       </c>
     </row>
@@ -6878,12 +7621,15 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>-0.1687068214765344</v>
+        <v>-0.168706821476527</v>
       </c>
       <c r="E248" t="n">
+        <v>1.154348284726285e-125</v>
+      </c>
+      <c r="F248" t="n">
         <v>-0.00752301251321124</v>
       </c>
-      <c r="F248" t="n">
+      <c r="G248" t="n">
         <v>7.398846344537761</v>
       </c>
     </row>
@@ -6904,12 +7650,15 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>-0.01360291123488225</v>
+        <v>-0.01360291123488377</v>
       </c>
       <c r="E249" t="n">
+        <v>0.06018561055964676</v>
+      </c>
+      <c r="F249" t="n">
         <v>-0.003147708908190706</v>
       </c>
-      <c r="F249" t="n">
+      <c r="G249" t="n">
         <v>7.172707182819448</v>
       </c>
     </row>
@@ -6930,12 +7679,15 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>0.01487166778908213</v>
+        <v>0.01487166778908136</v>
       </c>
       <c r="E250" t="n">
+        <v>0.03765779237334976</v>
+      </c>
+      <c r="F250" t="n">
         <v>0.009933191577278625</v>
       </c>
-      <c r="F250" t="n">
+      <c r="G250" t="n">
         <v>1.635038315952119</v>
       </c>
     </row>
@@ -6956,12 +7708,15 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>0.1130362618078435</v>
+        <v>0.1130362618078432</v>
       </c>
       <c r="E251" t="n">
+        <v>1.437047922054171e-56</v>
+      </c>
+      <c r="F251" t="n">
         <v>0.1448265940484633</v>
       </c>
-      <c r="F251" t="n">
+      <c r="G251" t="n">
         <v>19.38279118494379</v>
       </c>
     </row>
@@ -6982,12 +7737,15 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>-0.1738129023201791</v>
+        <v>-0.173812902320175</v>
       </c>
       <c r="E252" t="n">
+        <v>4.84770803955865e-133</v>
+      </c>
+      <c r="F252" t="n">
         <v>-249.2422170643717</v>
       </c>
-      <c r="F252" t="n">
+      <c r="G252" t="n">
         <v>65465.46418932109</v>
       </c>
     </row>
@@ -7008,12 +7766,15 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>-0.008505074930856173</v>
+        <v>-0.008505074930856008</v>
       </c>
       <c r="E253" t="n">
+        <v>0.233276298528547</v>
+      </c>
+      <c r="F253" t="n">
         <v>-0.003165445662121758</v>
       </c>
-      <c r="F253" t="n">
+      <c r="G253" t="n">
         <v>4.275615105800166</v>
       </c>
     </row>
@@ -7034,12 +7795,15 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>-0.04006708724152606</v>
+        <v>-0.04006708724152563</v>
       </c>
       <c r="E254" t="n">
+        <v>1.938071856707455e-08</v>
+      </c>
+      <c r="F254" t="n">
         <v>-2.394679396429338</v>
       </c>
-      <c r="F254" t="n">
+      <c r="G254" t="n">
         <v>787.7298502114428</v>
       </c>
     </row>
@@ -7060,12 +7824,15 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>0.02971089731258511</v>
+        <v>0.02971089731258405</v>
       </c>
       <c r="E255" t="n">
+        <v>3.117072934123297e-05</v>
+      </c>
+      <c r="F255" t="n">
         <v>0.1358971678954768</v>
       </c>
-      <c r="F255" t="n">
+      <c r="G255" t="n">
         <v>-1.731512521123727</v>
       </c>
     </row>
@@ -7086,12 +7853,15 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>0.1105795774840578</v>
+        <v>0.1105795774840582</v>
       </c>
       <c r="E256" t="n">
+        <v>1.725124323845441e-54</v>
+      </c>
+      <c r="F256" t="n">
         <v>18.56300690320989</v>
       </c>
-      <c r="F256" t="n">
+      <c r="G256" t="n">
         <v>636.592808352724</v>
       </c>
     </row>
@@ -7112,12 +7882,15 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>-0.1043823559887473</v>
+        <v>-0.1043823559887447</v>
       </c>
       <c r="E257" t="n">
+        <v>1.022792631072216e-48</v>
+      </c>
+      <c r="F257" t="n">
         <v>-0.3957703148143951</v>
       </c>
-      <c r="F257" t="n">
+      <c r="G257" t="n">
         <v>129.0034994892734</v>
       </c>
     </row>
@@ -7138,12 +7911,15 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>-0.08955942848877574</v>
+        <v>-0.08955942848877793</v>
       </c>
       <c r="E258" t="n">
+        <v>9.823489694898552e-26</v>
+      </c>
+      <c r="F258" t="n">
         <v>-0.006412074276957465</v>
       </c>
-      <c r="F258" t="n">
+      <c r="G258" t="n">
         <v>1.402554907480878</v>
       </c>
     </row>
@@ -7164,12 +7940,15 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>0.007705724151349103</v>
+        <v>0.007705724151347923</v>
       </c>
       <c r="E259" t="n">
+        <v>0.3557823813916291</v>
+      </c>
+      <c r="F259" t="n">
         <v>0.004570922333383062</v>
       </c>
-      <c r="F259" t="n">
+      <c r="G259" t="n">
         <v>12.76578822591653</v>
       </c>
     </row>
@@ -7190,12 +7969,15 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>-0.1965998783671461</v>
+        <v>-0.1965998783671402</v>
       </c>
       <c r="E260" t="n">
+        <v>3.807197896723694e-141</v>
+      </c>
+      <c r="F260" t="n">
         <v>-200.7621784694578</v>
       </c>
-      <c r="F260" t="n">
+      <c r="G260" t="n">
         <v>50015.49275607114</v>
       </c>
     </row>
@@ -7216,12 +7998,15 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>-0.002093841129149879</v>
+        <v>-0.002093841129149754</v>
       </c>
       <c r="E261" t="n">
+        <v>0.7896652744146444</v>
+      </c>
+      <c r="F261" t="n">
         <v>-0.01165531561704496</v>
       </c>
-      <c r="F261" t="n">
+      <c r="G261" t="n">
         <v>225.8752046418544</v>
       </c>
     </row>
@@ -7242,12 +8027,15 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>0.0252185426215455</v>
+        <v>0.02521854262154571</v>
       </c>
       <c r="E262" t="n">
+        <v>0.0007133825032309656</v>
+      </c>
+      <c r="F262" t="n">
         <v>0.0001634119764897153</v>
       </c>
-      <c r="F262" t="n">
+      <c r="G262" t="n">
         <v>0.04110874031553697</v>
       </c>
     </row>
@@ -7268,12 +8056,15 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>0.04073456875970695</v>
+        <v>0.04073456875970852</v>
       </c>
       <c r="E263" t="n">
+        <v>4.580945209609263e-08</v>
+      </c>
+      <c r="F263" t="n">
         <v>0.0001448486830768844</v>
       </c>
-      <c r="F263" t="n">
+      <c r="G263" t="n">
         <v>0.02771382238497097</v>
       </c>
     </row>
@@ -7294,12 +8085,15 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>-0.006857494407422493</v>
+        <v>-0.006857494407422723</v>
       </c>
       <c r="E264" t="n">
+        <v>0.3575984792844337</v>
+      </c>
+      <c r="F264" t="n">
         <v>-2.270664423891283e-05</v>
       </c>
-      <c r="F264" t="n">
+      <c r="G264" t="n">
         <v>0.008628336251197594</v>
       </c>
     </row>
@@ -7320,12 +8114,15 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>0.08670461357552006</v>
+        <v>0.08670461357552098</v>
       </c>
       <c r="E265" t="n">
+        <v>2.137205070074651e-31</v>
+      </c>
+      <c r="F265" t="n">
         <v>0.001457402477565436</v>
       </c>
-      <c r="F265" t="n">
+      <c r="G265" t="n">
         <v>0.133269917114444</v>
       </c>
     </row>
@@ -7346,12 +8143,15 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>0.01567239369411397</v>
+        <v>0.01567239369411379</v>
       </c>
       <c r="E266" t="n">
+        <v>0.03550101712091756</v>
+      </c>
+      <c r="F266" t="n">
         <v>3.858866363003221e-06</v>
       </c>
-      <c r="F266" t="n">
+      <c r="G266" t="n">
         <v>0.001395080343214064</v>
       </c>
     </row>
@@ -7372,12 +8172,15 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>0.08448196003872042</v>
+        <v>0.08448196003872128</v>
       </c>
       <c r="E267" t="n">
+        <v>7.113574015407239e-30</v>
+      </c>
+      <c r="F267" t="n">
         <v>0.00137036278729145</v>
       </c>
-      <c r="F267" t="n">
+      <c r="G267" t="n">
         <v>0.1261561499005342</v>
       </c>
     </row>
@@ -7398,12 +8201,15 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>0.1418820831645075</v>
+        <v>0.1418820831645102</v>
       </c>
       <c r="E268" t="n">
+        <v>1.29753913880471e-81</v>
+      </c>
+      <c r="F268" t="n">
         <v>0.002104712880596179</v>
       </c>
-      <c r="F268" t="n">
+      <c r="G268" t="n">
         <v>0.05597476217605885</v>
       </c>
     </row>
@@ -7424,12 +8230,15 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>0.1356242667488623</v>
+        <v>0.1356242667488612</v>
       </c>
       <c r="E269" t="n">
+        <v>1.224287457908074e-74</v>
+      </c>
+      <c r="F269" t="n">
         <v>0.001905578912131353</v>
       </c>
-      <c r="F269" t="n">
+      <c r="G269" t="n">
         <v>0.05931968472341584</v>
       </c>
     </row>
@@ -7450,12 +8259,15 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>0.1056958754086398</v>
+        <v>0.1056958754086375</v>
       </c>
       <c r="E270" t="n">
+        <v>6.979014903499429e-46</v>
+      </c>
+      <c r="F270" t="n">
         <v>0.000173598220972553</v>
       </c>
-      <c r="F270" t="n">
+      <c r="G270" t="n">
         <v>-0.00352245654417348</v>
       </c>
     </row>
@@ -7476,12 +8288,15 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>0.02937460056016978</v>
+        <v>0.02937460056016829</v>
       </c>
       <c r="E271" t="n">
+        <v>6.232064501908495e-05</v>
+      </c>
+      <c r="F271" t="n">
         <v>0.0003853394948687879</v>
       </c>
-      <c r="F271" t="n">
+      <c r="G271" t="n">
         <v>0.6842565862891905</v>
       </c>
     </row>
@@ -7502,12 +8317,15 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>-0.04665439390908858</v>
+        <v>-0.04665439390908601</v>
       </c>
       <c r="E272" t="n">
+        <v>2.001484413871899e-10</v>
+      </c>
+      <c r="F272" t="n">
         <v>-0.0004383940514662659</v>
       </c>
-      <c r="F272" t="n">
+      <c r="G272" t="n">
         <v>0.1865143834613075</v>
       </c>
     </row>
@@ -7528,12 +8346,15 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>-0.01130850941749056</v>
+        <v>-0.01130850941749051</v>
       </c>
       <c r="E273" t="n">
+        <v>0.1232922533043124</v>
+      </c>
+      <c r="F273" t="n">
         <v>-1.805243599821329e-05</v>
       </c>
-      <c r="F273" t="n">
+      <c r="G273" t="n">
         <v>0.009501440583296127</v>
       </c>
     </row>
@@ -7554,12 +8375,15 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>0.01490730994072327</v>
+        <v>0.01490730994072357</v>
       </c>
       <c r="E274" t="n">
+        <v>0.04219558579081335</v>
+      </c>
+      <c r="F274" t="n">
         <v>0.0001064176654169836</v>
       </c>
-      <c r="F274" t="n">
+      <c r="G274" t="n">
         <v>0.9267546446530188</v>
       </c>
     </row>
@@ -7580,12 +8404,15 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>-0.05206363585410605</v>
+        <v>-0.05206363585410734</v>
       </c>
       <c r="E275" t="n">
+        <v>1.250142266115929e-12</v>
+      </c>
+      <c r="F275" t="n">
         <v>-0.0003901270170172223</v>
       </c>
-      <c r="F275" t="n">
+      <c r="G275" t="n">
         <v>0.9803408907249863</v>
       </c>
     </row>
@@ -7606,12 +8433,15 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>0.1107799130119563</v>
+        <v>0.1107799130119614</v>
       </c>
       <c r="E276" t="n">
+        <v>8.427070175888728e-52</v>
+      </c>
+      <c r="F276" t="n">
         <v>0.0004655253494257989</v>
       </c>
-      <c r="F276" t="n">
+      <c r="G276" t="n">
         <v>0.008035596015630475</v>
       </c>
     </row>
@@ -7632,12 +8462,15 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>-0.01642841173396312</v>
+        <v>-0.01642841173396388</v>
       </c>
       <c r="E277" t="n">
+        <v>0.02626499397704745</v>
+      </c>
+      <c r="F277" t="n">
         <v>-0.0008134732027473143</v>
       </c>
-      <c r="F277" t="n">
+      <c r="G277" t="n">
         <v>0.22068767566097</v>
       </c>
     </row>
@@ -7658,12 +8491,15 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>-0.01885871935546756</v>
+        <v>-0.01885871935546648</v>
       </c>
       <c r="E278" t="n">
+        <v>0.02330550436276984</v>
+      </c>
+      <c r="F278" t="n">
         <v>-5.787805474740854e-05</v>
       </c>
-      <c r="F278" t="n">
+      <c r="G278" t="n">
         <v>0.03305808449587719</v>
       </c>
     </row>
@@ -7684,12 +8520,15 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>-0.2197094959391738</v>
+        <v>-0.219709495939177</v>
       </c>
       <c r="E279" t="n">
+        <v>7.667216245983135e-198</v>
+      </c>
+      <c r="F279" t="n">
         <v>-0.00463585931158886</v>
       </c>
-      <c r="F279" t="n">
+      <c r="G279" t="n">
         <v>0.6751398804189574</v>
       </c>
     </row>
@@ -7710,12 +8549,15 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>-0.1015526155158031</v>
+        <v>-0.1015526155158095</v>
       </c>
       <c r="E280" t="n">
+        <v>3.771875287863326e-43</v>
+      </c>
+      <c r="F280" t="n">
         <v>-0.002372170013191881</v>
       </c>
-      <c r="F280" t="n">
+      <c r="G280" t="n">
         <v>0.5197307210091228</v>
       </c>
     </row>
@@ -7736,12 +8578,15 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>-0.1090598620142895</v>
+        <v>-0.1090598620142905</v>
       </c>
       <c r="E281" t="n">
+        <v>2.764591209032618e-49</v>
+      </c>
+      <c r="F281" t="n">
         <v>-0.0007979000065872681</v>
       </c>
-      <c r="F281" t="n">
+      <c r="G281" t="n">
         <v>0.09184604024412188</v>
       </c>
     </row>
@@ -7762,12 +8607,15 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>-0.2343548127077237</v>
+        <v>-0.2343548127077321</v>
       </c>
       <c r="E282" t="n">
+        <v>9.502112921802565e-227</v>
+      </c>
+      <c r="F282" t="n">
         <v>-0.0115167473628706</v>
       </c>
-      <c r="F282" t="n">
+      <c r="G282" t="n">
         <v>1.753648439369477</v>
       </c>
     </row>
@@ -7788,12 +8636,15 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>-0.0266200691714695</v>
+        <v>-0.02662006917146884</v>
       </c>
       <c r="E283" t="n">
+        <v>0.0003197728533735849</v>
+      </c>
+      <c r="F283" t="n">
         <v>-0.0002444310006953124</v>
       </c>
-      <c r="F283" t="n">
+      <c r="G283" t="n">
         <v>0.03401658475454389</v>
       </c>
     </row>
@@ -7814,12 +8665,15 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>0.02535692001920005</v>
+        <v>0.02535692001919991</v>
       </c>
       <c r="E284" t="n">
+        <v>0.0006082426534343212</v>
+      </c>
+      <c r="F284" t="n">
         <v>0.0004930452880184353</v>
       </c>
-      <c r="F284" t="n">
+      <c r="G284" t="n">
         <v>-0.009425367080362648</v>
       </c>
     </row>
@@ -7840,12 +8694,15 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>-0.3186585732669029</v>
+        <v>-0.3186585732669052</v>
       </c>
       <c r="E285" t="n">
+        <v>0</v>
+      </c>
+      <c r="F285" t="n">
         <v>-0.002281395583156891</v>
       </c>
-      <c r="F285" t="n">
+      <c r="G285" t="n">
         <v>0.2256686831882844</v>
       </c>
     </row>
@@ -7866,12 +8723,15 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>-0.1461332461119376</v>
+        <v>-0.1461332461119404</v>
       </c>
       <c r="E286" t="n">
+        <v>1.953512941749491e-87</v>
+      </c>
+      <c r="F286" t="n">
         <v>-0.004509016792072196</v>
       </c>
-      <c r="F286" t="n">
+      <c r="G286" t="n">
         <v>0.7268536250104459</v>
       </c>
     </row>
@@ -7892,12 +8752,15 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>-0.2408489058819765</v>
+        <v>-0.2408489058819939</v>
       </c>
       <c r="E287" t="n">
+        <v>9.369591836698658e-240</v>
+      </c>
+      <c r="F287" t="n">
         <v>-0.0151538323112828</v>
       </c>
-      <c r="F287" t="n">
+      <c r="G287" t="n">
         <v>2.460437639324289</v>
       </c>
     </row>
@@ -7918,12 +8781,15 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>-0.17324707899895</v>
+        <v>-0.1732470789989452</v>
       </c>
       <c r="E288" t="n">
+        <v>4.284651264773288e-123</v>
+      </c>
+      <c r="F288" t="n">
         <v>-0.001647300726290141</v>
       </c>
-      <c r="F288" t="n">
+      <c r="G288" t="n">
         <v>0.2090949727799784</v>
       </c>
     </row>
@@ -7944,12 +8810,15 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>-0.05998763496790983</v>
+        <v>-0.05998763496790845</v>
       </c>
       <c r="E289" t="n">
+        <v>1.59409319138207e-16</v>
+      </c>
+      <c r="F289" t="n">
         <v>-0.0003221965790792989</v>
       </c>
-      <c r="F289" t="n">
+      <c r="G289" t="n">
         <v>0.092457411963504</v>
       </c>
     </row>
@@ -7970,12 +8839,15 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>0.05623469979973907</v>
+        <v>0.05623469979973861</v>
       </c>
       <c r="E290" t="n">
+        <v>1.056173758185857e-14</v>
+      </c>
+      <c r="F290" t="n">
         <v>0.0006555152162881568</v>
       </c>
-      <c r="F290" t="n">
+      <c r="G290" t="n">
         <v>0.2081838698290483</v>
       </c>
     </row>
@@ -7996,12 +8868,15 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>-0.04134317671213801</v>
+        <v>-0.04134317671213872</v>
       </c>
       <c r="E291" t="n">
+        <v>1.326297446296676e-08</v>
+      </c>
+      <c r="F291" t="n">
         <v>-0.0005530729439997206</v>
       </c>
-      <c r="F291" t="n">
+      <c r="G291" t="n">
         <v>0.712782660895834</v>
       </c>
     </row>
@@ -8022,12 +8897,15 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>-0.1862441557023133</v>
+        <v>-0.1862441557023138</v>
       </c>
       <c r="E292" t="n">
+        <v>6.082942532545312e-147</v>
+      </c>
+      <c r="F292" t="n">
         <v>-0.00240471208093027</v>
       </c>
-      <c r="F292" t="n">
+      <c r="G292" t="n">
         <v>0.8613665439872343</v>
       </c>
     </row>
@@ -8048,12 +8926,15 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>-0.08092500253416766</v>
+        <v>-0.08092500253416703</v>
       </c>
       <c r="E293" t="n">
+        <v>9.062063077161926e-29</v>
+      </c>
+      <c r="F293" t="n">
         <v>-0.001337426630618139</v>
       </c>
-      <c r="F293" t="n">
+      <c r="G293" t="n">
         <v>0.7355734912746852</v>
       </c>
     </row>
@@ -8074,12 +8955,15 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>0.1036624063500662</v>
+        <v>0.103662406350067</v>
       </c>
       <c r="E294" t="n">
+        <v>3.276762969276043e-44</v>
+      </c>
+      <c r="F294" t="n">
         <v>0.0002615924970957152</v>
       </c>
-      <c r="F294" t="n">
+      <c r="G294" t="n">
         <v>0.0173312773891888</v>
       </c>
     </row>
@@ -8100,12 +8984,15 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>0.1529699255160912</v>
+        <v>0.1529699255160924</v>
       </c>
       <c r="E295" t="n">
+        <v>1.033261323956328e-94</v>
+      </c>
+      <c r="F295" t="n">
         <v>0.0003255723261293223</v>
       </c>
-      <c r="F295" t="n">
+      <c r="G295" t="n">
         <v>0.007375091237587249</v>
       </c>
     </row>
@@ -8126,12 +9013,15 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>0.05898739084234671</v>
+        <v>0.05898739084234512</v>
       </c>
       <c r="E296" t="n">
+        <v>2.339531196656233e-15</v>
+      </c>
+      <c r="F296" t="n">
         <v>3.730743941434392e-05</v>
       </c>
-      <c r="F296" t="n">
+      <c r="G296" t="n">
         <v>0.005337504706797547</v>
       </c>
     </row>
@@ -8152,12 +9042,15 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>-0.0334098271717785</v>
+        <v>-0.03340982717177952</v>
       </c>
       <c r="E297" t="n">
+        <v>0.0001773424265522549</v>
+      </c>
+      <c r="F297" t="n">
         <v>-0.003830643926366222</v>
       </c>
-      <c r="F297" t="n">
+      <c r="G297" t="n">
         <v>6.3450321678095</v>
       </c>
     </row>
@@ -8178,12 +9071,15 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>0.00410586327897925</v>
+        <v>0.004105863278979402</v>
       </c>
       <c r="E298" t="n">
+        <v>0.6328729643342681</v>
+      </c>
+      <c r="F298" t="n">
         <v>0.007263620908995856</v>
       </c>
-      <c r="F298" t="n">
+      <c r="G298" t="n">
         <v>52.75570538938165</v>
       </c>
     </row>
@@ -8204,12 +9100,15 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>-0.1199957361721834</v>
+        <v>-0.1199957361721873</v>
       </c>
       <c r="E299" t="n">
+        <v>2.265009543640678e-45</v>
+      </c>
+      <c r="F299" t="n">
         <v>-0.488545612781487</v>
       </c>
-      <c r="F299" t="n">
+      <c r="G299" t="n">
         <v>221.9616548612027</v>
       </c>
     </row>
@@ -8230,12 +9129,15 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>0.01695115477492685</v>
+        <v>0.01695115477492656</v>
       </c>
       <c r="E300" t="n">
+        <v>0.04503889733465424</v>
+      </c>
+      <c r="F300" t="n">
         <v>0.00717454797616864</v>
       </c>
-      <c r="F300" t="n">
+      <c r="G300" t="n">
         <v>3.270916164864462</v>
       </c>
     </row>
@@ -8256,12 +9158,15 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>0.2228453251055157</v>
+        <v>0.2228453251055151</v>
       </c>
       <c r="E301" t="n">
+        <v>6.629865641028735e-157</v>
+      </c>
+      <c r="F301" t="n">
         <v>0.01153277807201138</v>
       </c>
-      <c r="F301" t="n">
+      <c r="G301" t="n">
         <v>0.3575011421494372</v>
       </c>
     </row>
@@ -8282,12 +9187,15 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>-0.7092883208039918</v>
+        <v>-0.7092883208039871</v>
       </c>
       <c r="E302" t="n">
+        <v>1.132654533225464e-145</v>
+      </c>
+      <c r="F302" t="n">
         <v>-17216594.0321008</v>
       </c>
-      <c r="F302" t="n">
+      <c r="G302" t="n">
         <v>1541719866.595573</v>
       </c>
     </row>
@@ -8308,12 +9216,15 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>-0.7092883215439333</v>
+        <v>-0.709288321543932</v>
       </c>
       <c r="E303" t="n">
+        <v>1.132653401541501e-145</v>
+      </c>
+      <c r="F303" t="n">
         <v>-17216.59421714782</v>
       </c>
-      <c r="F303" t="n">
+      <c r="G303" t="n">
         <v>1541719.864947389</v>
       </c>
     </row>
@@ -8334,12 +9245,15 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>-0.06721602300918784</v>
+        <v>-0.06721602300918833</v>
       </c>
       <c r="E304" t="n">
+        <v>0.03873647562600659</v>
+      </c>
+      <c r="F304" t="n">
         <v>-0.6822229031097586</v>
       </c>
-      <c r="F304" t="n">
+      <c r="G304" t="n">
         <v>238.9031455798969</v>
       </c>
     </row>
@@ -8360,12 +9274,15 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>-0.09551972194825023</v>
+        <v>-0.09551972194825134</v>
       </c>
       <c r="E305" t="n">
+        <v>0.008370980115934843</v>
+      </c>
+      <c r="F305" t="n">
         <v>-0.0006165096040379575</v>
       </c>
-      <c r="F305" t="n">
+      <c r="G305" t="n">
         <v>0.1000431900210527</v>
       </c>
     </row>
@@ -8386,12 +9303,15 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>0.11408634576769</v>
+        <v>0.1140863457676911</v>
       </c>
       <c r="E306" t="n">
+        <v>0.001619695788302785</v>
+      </c>
+      <c r="F306" t="n">
         <v>0.001905724803569954</v>
       </c>
-      <c r="F306" t="n">
+      <c r="G306" t="n">
         <v>0.09243803982675983</v>
       </c>
     </row>
@@ -8412,12 +9332,15 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>-0.007548535268747344</v>
+        <v>-0.007548535268747482</v>
       </c>
       <c r="E307" t="n">
+        <v>0.8343498470121955</v>
+      </c>
+      <c r="F307" t="n">
         <v>-0.000275012902390157</v>
       </c>
-      <c r="F307" t="n">
+      <c r="G307" t="n">
         <v>3.881583684963134</v>
       </c>
     </row>
@@ -8438,12 +9361,15 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>0.01297683012212413</v>
+        <v>0.01297683012212408</v>
       </c>
       <c r="E308" t="n">
+        <v>0.7192042059170973</v>
+      </c>
+      <c r="F308" t="n">
         <v>0.07541181910473753</v>
       </c>
-      <c r="F308" t="n">
+      <c r="G308" t="n">
         <v>86.26140492901776</v>
       </c>
     </row>
@@ -8464,12 +9390,15 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>-0.1388755471611821</v>
+        <v>-0.1388755471611819</v>
       </c>
       <c r="E309" t="n">
+        <v>0.0001105767444751039</v>
+      </c>
+      <c r="F309" t="n">
         <v>-0.1988415777441037</v>
       </c>
-      <c r="F309" t="n">
+      <c r="G309" t="n">
         <v>34.63600706877926</v>
       </c>
     </row>
@@ -8490,12 +9419,15 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>-0.06714514438885358</v>
+        <v>-0.06714514438885383</v>
       </c>
       <c r="E310" t="n">
+        <v>0.06412265047645305</v>
+      </c>
+      <c r="F310" t="n">
         <v>-0.004454250154902089</v>
       </c>
-      <c r="F310" t="n">
+      <c r="G310" t="n">
         <v>2.311009665732705</v>
       </c>
     </row>
@@ -8516,12 +9448,15 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>0.03298427934109651</v>
+        <v>0.03298427934109663</v>
       </c>
       <c r="E311" t="n">
+        <v>0.3635278351742037</v>
+      </c>
+      <c r="F311" t="n">
         <v>0.0005341704849724833</v>
       </c>
-      <c r="F311" t="n">
+      <c r="G311" t="n">
         <v>0.4837737890174026</v>
       </c>
     </row>
@@ -8542,12 +9477,15 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>-0.196317235984243</v>
+        <v>-0.1963172359842443</v>
       </c>
       <c r="E312" t="n">
+        <v>4.76223363891062e-08</v>
+      </c>
+      <c r="F312" t="n">
         <v>-0.02692949640638724</v>
       </c>
-      <c r="F312" t="n">
+      <c r="G312" t="n">
         <v>5.694267800081233</v>
       </c>
     </row>
@@ -8568,12 +9506,15 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>0.003160719315176974</v>
+        <v>0.003160719315176952</v>
       </c>
       <c r="E313" t="n">
+        <v>0.9302231101309103</v>
+      </c>
+      <c r="F313" t="n">
         <v>0.003492763495504091</v>
       </c>
-      <c r="F313" t="n">
+      <c r="G313" t="n">
         <v>22.52555588230821</v>
       </c>
     </row>
@@ -8594,12 +9535,15 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>0.08673975975648968</v>
+        <v>0.08673975975649029</v>
       </c>
       <c r="E314" t="n">
+        <v>0.01669295204960177</v>
+      </c>
+      <c r="F314" t="n">
         <v>0.00557263242282184</v>
       </c>
-      <c r="F314" t="n">
+      <c r="G314" t="n">
         <v>0.5242865997042387</v>
       </c>
     </row>
@@ -8620,12 +9564,15 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>0.1445186519713348</v>
+        <v>0.1445186519713341</v>
       </c>
       <c r="E315" t="n">
+        <v>5.700871655230556e-05</v>
+      </c>
+      <c r="F315" t="n">
         <v>0.003331497406529607</v>
       </c>
-      <c r="F315" t="n">
+      <c r="G315" t="n">
         <v>0.1600747943524201</v>
       </c>
     </row>
@@ -8646,12 +9593,15 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>0.1431930785388526</v>
+        <v>0.1431930785388522</v>
       </c>
       <c r="E316" t="n">
+        <v>6.67569544495142e-05</v>
+      </c>
+      <c r="F316" t="n">
         <v>0.1378183942000115</v>
       </c>
-      <c r="F316" t="n">
+      <c r="G316" t="n">
         <v>9.00424132906131</v>
       </c>
     </row>
@@ -8672,12 +9622,15 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>0.0338219131752024</v>
+        <v>0.03382191317520229</v>
       </c>
       <c r="E317" t="n">
+        <v>0.3486230594119747</v>
+      </c>
+      <c r="F317" t="n">
         <v>0.00137097061036149</v>
       </c>
-      <c r="F317" t="n">
+      <c r="G317" t="n">
         <v>9.191575321939521</v>
       </c>
     </row>
@@ -8698,12 +9651,15 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>-0.2438013748683835</v>
+        <v>-0.2438013748683838</v>
       </c>
       <c r="E318" t="n">
+        <v>6.984726003919591e-12</v>
+      </c>
+      <c r="F318" t="n">
         <v>-1.063191233539018</v>
       </c>
-      <c r="F318" t="n">
+      <c r="G318" t="n">
         <v>266.5731183391256</v>
       </c>
     </row>
@@ -8724,12 +9680,15 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>-0.06240806752288385</v>
+        <v>-0.06240806752288414</v>
       </c>
       <c r="E319" t="n">
+        <v>0.08351824120815048</v>
+      </c>
+      <c r="F319" t="n">
         <v>-0.02115825625758908</v>
       </c>
-      <c r="F319" t="n">
+      <c r="G319" t="n">
         <v>102.2276442006765</v>
       </c>
     </row>
@@ -8750,12 +9709,15 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>-0.07668096560521057</v>
+        <v>-0.07668096560521077</v>
       </c>
       <c r="E320" t="n">
+        <v>0.03337966265410298</v>
+      </c>
+      <c r="F320" t="n">
         <v>-2.854419024100293</v>
       </c>
-      <c r="F320" t="n">
+      <c r="G320" t="n">
         <v>552.5067884627704</v>
       </c>
     </row>
@@ -8776,12 +9738,15 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>0.04100140016436969</v>
+        <v>0.04100140016436978</v>
       </c>
       <c r="E321" t="n">
+        <v>0.2558008278757393</v>
+      </c>
+      <c r="F321" t="n">
         <v>0.01092408092768241</v>
       </c>
-      <c r="F321" t="n">
+      <c r="G321" t="n">
         <v>23.15343735206735</v>
       </c>
     </row>
@@ -8802,12 +9767,15 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>0.04924247697778481</v>
+        <v>0.04924247697778474</v>
       </c>
       <c r="E322" t="n">
+        <v>0.1722431281085912</v>
+      </c>
+      <c r="F322" t="n">
         <v>0.002186477796035777</v>
       </c>
-      <c r="F322" t="n">
+      <c r="G322" t="n">
         <v>0.8037065499658795</v>
       </c>
     </row>
@@ -8828,12 +9796,15 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>0.106665949723194</v>
+        <v>0.1066659497231934</v>
       </c>
       <c r="E323" t="n">
+        <v>0.003041522670732673</v>
+      </c>
+      <c r="F323" t="n">
         <v>0.107038438679963</v>
       </c>
-      <c r="F323" t="n">
+      <c r="G323" t="n">
         <v>-1.451130493854518</v>
       </c>
     </row>
@@ -8854,12 +9825,15 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>0.2221424711565448</v>
+        <v>0.2221424711565445</v>
       </c>
       <c r="E324" t="n">
+        <v>4.598704893910296e-10</v>
+      </c>
+      <c r="F324" t="n">
         <v>0.01272987578390119</v>
       </c>
-      <c r="F324" t="n">
+      <c r="G324" t="n">
         <v>0.3995914901022452</v>
       </c>
     </row>
@@ -8880,12 +9854,15 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>-0.2866753184151758</v>
+        <v>-0.2866753184151761</v>
       </c>
       <c r="E325" t="n">
+        <v>4.943457437858373e-16</v>
+      </c>
+      <c r="F325" t="n">
         <v>-0.05560863270033894</v>
       </c>
-      <c r="F325" t="n">
+      <c r="G325" t="n">
         <v>6.066315339568964</v>
       </c>
     </row>
@@ -8906,12 +9883,15 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>0.1809954350011501</v>
+        <v>0.180995435001151</v>
       </c>
       <c r="E326" t="n">
+        <v>4.999194794411895e-07</v>
+      </c>
+      <c r="F326" t="n">
         <v>0.04358222524522636</v>
       </c>
-      <c r="F326" t="n">
+      <c r="G326" t="n">
         <v>0.4071229518552708</v>
       </c>
     </row>
@@ -8932,12 +9912,15 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>-0.07354657849380702</v>
+        <v>-0.07354657849380673</v>
       </c>
       <c r="E327" t="n">
+        <v>0.04132215730788419</v>
+      </c>
+      <c r="F327" t="n">
         <v>-1.031240429216646</v>
       </c>
-      <c r="F327" t="n">
+      <c r="G327" t="n">
         <v>206.3050842550803</v>
       </c>
     </row>
@@ -8958,12 +9941,15 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>-0.009477839732410431</v>
+        <v>-0.009477839732410386</v>
       </c>
       <c r="E328" t="n">
+        <v>0.7928758506172298</v>
+      </c>
+      <c r="F328" t="n">
         <v>-0.04629931458431263</v>
       </c>
-      <c r="F328" t="n">
+      <c r="G328" t="n">
         <v>122.1182507923028</v>
       </c>
     </row>
@@ -8984,12 +9970,15 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>-0.2211241751855084</v>
+        <v>-0.2211241751855099</v>
       </c>
       <c r="E329" t="n">
+        <v>6.984204654413173e-10</v>
+      </c>
+      <c r="F329" t="n">
         <v>-0.1072200356318144</v>
       </c>
-      <c r="F329" t="n">
+      <c r="G329" t="n">
         <v>47.27377644009947</v>
       </c>
     </row>
@@ -9010,12 +9999,15 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>0.06209805858904911</v>
+        <v>0.06209805858904886</v>
       </c>
       <c r="E330" t="n">
+        <v>0.08506699608318712</v>
+      </c>
+      <c r="F330" t="n">
         <v>0.109634214413647</v>
       </c>
-      <c r="F330" t="n">
+      <c r="G330" t="n">
         <v>47.34450623089474</v>
       </c>
     </row>
@@ -9036,12 +10028,15 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>-0.2160813962425295</v>
+        <v>-0.2160813962425307</v>
       </c>
       <c r="E331" t="n">
+        <v>1.718922687392572e-09</v>
+      </c>
+      <c r="F331" t="n">
         <v>-0.03856014133290035</v>
       </c>
-      <c r="F331" t="n">
+      <c r="G331" t="n">
         <v>15.5493325400289</v>
       </c>
     </row>
@@ -9062,12 +10057,15 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>0.1234863117160756</v>
+        <v>0.1234863117160754</v>
       </c>
       <c r="E332" t="n">
+        <v>0.0005943246570291045</v>
+      </c>
+      <c r="F332" t="n">
         <v>0.005303824910194086</v>
       </c>
-      <c r="F332" t="n">
+      <c r="G332" t="n">
         <v>3.973761461410033</v>
       </c>
     </row>
@@ -9088,12 +10086,15 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>-0.201591104263465</v>
+        <v>-0.2015911042634642</v>
       </c>
       <c r="E333" t="n">
+        <v>3.175286021572268e-08</v>
+      </c>
+      <c r="F333" t="n">
         <v>-0.6865210894550653</v>
       </c>
-      <c r="F333" t="n">
+      <c r="G333" t="n">
         <v>152.5677380493399</v>
       </c>
     </row>
@@ -9114,12 +10115,15 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>0.05520012924769604</v>
+        <v>0.05520012924769623</v>
       </c>
       <c r="E334" t="n">
+        <v>0.1281543850076145</v>
+      </c>
+      <c r="F334" t="n">
         <v>0.04857058121555072</v>
       </c>
-      <c r="F334" t="n">
+      <c r="G334" t="n">
         <v>27.11339993545607</v>
       </c>
     </row>
@@ -9140,12 +10144,15 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>0.0163408394260625</v>
+        <v>0.01634083942606232</v>
       </c>
       <c r="E335" t="n">
+        <v>0.6526591196696822</v>
+      </c>
+      <c r="F335" t="n">
         <v>0.004273471046463116</v>
       </c>
-      <c r="F335" t="n">
+      <c r="G335" t="n">
         <v>29.08608328647254</v>
       </c>
     </row>
@@ -9166,12 +10173,15 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>-0.06676989879845176</v>
+        <v>-0.06676989879845223</v>
       </c>
       <c r="E336" t="n">
+        <v>0.0656279143853325</v>
+      </c>
+      <c r="F336" t="n">
         <v>-0.008674647825334952</v>
       </c>
-      <c r="F336" t="n">
+      <c r="G336" t="n">
         <v>32.87854353012746</v>
       </c>
     </row>
@@ -9192,12 +10202,15 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>0.06107775684336064</v>
+        <v>0.06107775684336138</v>
       </c>
       <c r="E337" t="n">
+        <v>0.09223822572604004</v>
+      </c>
+      <c r="F337" t="n">
         <v>0.03945640771586852</v>
       </c>
-      <c r="F337" t="n">
+      <c r="G337" t="n">
         <v>88.30447699166415</v>
       </c>
     </row>
@@ -9218,12 +10231,15 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>0.1388020398592414</v>
+        <v>0.1388020398592416</v>
       </c>
       <c r="E338" t="n">
+        <v>0.0001223647479903566</v>
+      </c>
+      <c r="F338" t="n">
         <v>0.03341205157348622</v>
       </c>
-      <c r="F338" t="n">
+      <c r="G338" t="n">
         <v>5.72115545713628</v>
       </c>
     </row>
@@ -9244,12 +10260,15 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>0.1178285965595102</v>
+        <v>0.1178285965595104</v>
       </c>
       <c r="E339" t="n">
+        <v>0.001977928074374843</v>
+      </c>
+      <c r="F339" t="n">
         <v>0.01161495586847608</v>
       </c>
-      <c r="F339" t="n">
+      <c r="G339" t="n">
         <v>10.41442590697988</v>
       </c>
     </row>
@@ -9270,12 +10289,15 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>0.04668305933048871</v>
+        <v>0.04668305933048883</v>
       </c>
       <c r="E340" t="n">
+        <v>0.1956642604823908</v>
+      </c>
+      <c r="F340" t="n">
         <v>0.0121941668809907</v>
       </c>
-      <c r="F340" t="n">
+      <c r="G340" t="n">
         <v>138.2142068547572</v>
       </c>
     </row>
@@ -9296,12 +10318,15 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>-0.1313763249774394</v>
+        <v>-0.1313763249774406</v>
       </c>
       <c r="E341" t="n">
+        <v>0.0002790807490222981</v>
+      </c>
+      <c r="F341" t="n">
         <v>-0.1261430222904125</v>
       </c>
-      <c r="F341" t="n">
+      <c r="G341" t="n">
         <v>65.81572512728731</v>
       </c>
     </row>
@@ -9322,12 +10347,15 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>0.2000694948028746</v>
+        <v>0.2000694948028754</v>
       </c>
       <c r="E342" t="n">
+        <v>2.196795561138807e-08</v>
+      </c>
+      <c r="F342" t="n">
         <v>10.90359630731326</v>
       </c>
-      <c r="F342" t="n">
+      <c r="G342" t="n">
         <v>-412.4862167197495</v>
       </c>
     </row>
@@ -9348,12 +10376,15 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>0.1401961848135909</v>
+        <v>0.1401961848135912</v>
       </c>
       <c r="E343" t="n">
+        <v>0.0002276575080856344</v>
+      </c>
+      <c r="F343" t="n">
         <v>0.03149326486466983</v>
       </c>
-      <c r="F343" t="n">
+      <c r="G343" t="n">
         <v>11.66133447008664</v>
       </c>
     </row>
@@ -9374,12 +10405,15 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>-0.1630214538972209</v>
+        <v>-0.1630214538972221</v>
       </c>
       <c r="E344" t="n">
+        <v>6.183230238986097e-06</v>
+      </c>
+      <c r="F344" t="n">
         <v>-1.097821840858298</v>
       </c>
-      <c r="F344" t="n">
+      <c r="G344" t="n">
         <v>303.6551897739044</v>
       </c>
     </row>
@@ -9400,12 +10434,15 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>-0.3020068401395504</v>
+        <v>-0.3020068401395508</v>
       </c>
       <c r="E345" t="n">
+        <v>1.634555943143012e-17</v>
+      </c>
+      <c r="F345" t="n">
         <v>-0.01359130540439009</v>
       </c>
-      <c r="F345" t="n">
+      <c r="G345" t="n">
         <v>5.322655603899236</v>
       </c>
     </row>
@@ -9426,12 +10463,15 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>-0.04397212493378725</v>
+        <v>-0.043972124933787</v>
       </c>
       <c r="E346" t="n">
+        <v>0.2256589605200071</v>
+      </c>
+      <c r="F346" t="n">
         <v>-0.01035670097934468</v>
       </c>
-      <c r="F346" t="n">
+      <c r="G346" t="n">
         <v>15.63279712729729</v>
       </c>
     </row>
@@ -9452,12 +10492,15 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>-0.2059233693657763</v>
+        <v>-0.2059233693657761</v>
       </c>
       <c r="E347" t="n">
+        <v>8.080370837262377e-09</v>
+      </c>
+      <c r="F347" t="n">
         <v>-2.575980218643631</v>
       </c>
-      <c r="F347" t="n">
+      <c r="G347" t="n">
         <v>345.6446758511463</v>
       </c>
     </row>
@@ -9478,12 +10521,15 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>-0.1338849412433901</v>
+        <v>-0.1338849412433898</v>
       </c>
       <c r="E348" t="n">
+        <v>0.0001946136989020754</v>
+      </c>
+      <c r="F348" t="n">
         <v>-0.006148123399090517</v>
       </c>
-      <c r="F348" t="n">
+      <c r="G348" t="n">
         <v>7.30487117328923</v>
       </c>
     </row>
@@ -9504,12 +10550,15 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>-0.167213805573598</v>
+        <v>-0.1672138055735984</v>
       </c>
       <c r="E349" t="n">
+        <v>3.519548292601549e-06</v>
+      </c>
+      <c r="F349" t="n">
         <v>-0.02894850193725977</v>
       </c>
-      <c r="F349" t="n">
+      <c r="G349" t="n">
         <v>8.64868556367589</v>
       </c>
     </row>
@@ -9530,12 +10579,15 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>-0.06676104219809843</v>
+        <v>-0.0667610421980987</v>
       </c>
       <c r="E350" t="n">
+        <v>0.06548613834076056</v>
+      </c>
+      <c r="F350" t="n">
         <v>-0.01878396148261894</v>
       </c>
-      <c r="F350" t="n">
+      <c r="G350" t="n">
         <v>2.565681672987291</v>
       </c>
     </row>
@@ -9556,12 +10608,15 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>0.3074872691365609</v>
+        <v>0.3074872691365614</v>
       </c>
       <c r="E351" t="n">
+        <v>3.776191913311784e-18</v>
+      </c>
+      <c r="F351" t="n">
         <v>0.4877614374286751</v>
       </c>
-      <c r="F351" t="n">
+      <c r="G351" t="n">
         <v>-4.515107506644707</v>
       </c>
     </row>
@@ -9582,12 +10637,15 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>-0.3101581908253981</v>
+        <v>-0.3101581908253991</v>
       </c>
       <c r="E352" t="n">
+        <v>1.243126639969289e-18</v>
+      </c>
+      <c r="F352" t="n">
         <v>-412.0917157232333</v>
       </c>
-      <c r="F352" t="n">
+      <c r="G352" t="n">
         <v>76374.55145057989</v>
       </c>
     </row>
@@ -9608,12 +10666,15 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>-0.05754531640023389</v>
+        <v>-0.05754531640023366</v>
       </c>
       <c r="E353" t="n">
+        <v>0.1105902210433896</v>
+      </c>
+      <c r="F353" t="n">
         <v>-0.009943848993329644</v>
       </c>
-      <c r="F353" t="n">
+      <c r="G353" t="n">
         <v>4.725022274242256</v>
       </c>
     </row>
@@ -9634,12 +10695,15 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>-0.1133243907509112</v>
+        <v>-0.1133243907509108</v>
       </c>
       <c r="E354" t="n">
+        <v>0.001634566166463265</v>
+      </c>
+      <c r="F354" t="n">
         <v>-10.91455142456651</v>
       </c>
-      <c r="F354" t="n">
+      <c r="G354" t="n">
         <v>1365.357668426843</v>
       </c>
     </row>
@@ -9660,12 +10724,15 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>-0.03269094756958853</v>
+        <v>-0.03269094756958844</v>
       </c>
       <c r="E355" t="n">
+        <v>0.3649859308412713</v>
+      </c>
+      <c r="F355" t="n">
         <v>-0.01868942420268683</v>
       </c>
-      <c r="F355" t="n">
+      <c r="G355" t="n">
         <v>6.720069776610577</v>
       </c>
     </row>
@@ -9686,12 +10753,15 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>0.1375969557515091</v>
+        <v>0.1375969557515083</v>
       </c>
       <c r="E356" t="n">
+        <v>0.0001280443998790822</v>
+      </c>
+      <c r="F356" t="n">
         <v>17.76900806518499</v>
       </c>
-      <c r="F356" t="n">
+      <c r="G356" t="n">
         <v>856.2541258770618</v>
       </c>
     </row>
@@ -9712,12 +10782,15 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>-0.03808445429400888</v>
+        <v>-0.03808445429400886</v>
       </c>
       <c r="E357" t="n">
+        <v>0.291211898565351</v>
+      </c>
+      <c r="F357" t="n">
         <v>-0.147790317521307</v>
       </c>
-      <c r="F357" t="n">
+      <c r="G357" t="n">
         <v>111.5113021972226</v>
       </c>
     </row>
@@ -9738,12 +10811,15 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>0.1631055262340524</v>
+        <v>0.1631055262340531</v>
       </c>
       <c r="E358" t="n">
+        <v>0.0002131939054762651</v>
+      </c>
+      <c r="F358" t="n">
         <v>0.007208385712902258</v>
       </c>
-      <c r="F358" t="n">
+      <c r="G358" t="n">
         <v>0.5733750224318384</v>
       </c>
     </row>
@@ -9764,12 +10840,15 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>0.01367188432336747</v>
+        <v>0.01367188432336769</v>
       </c>
       <c r="E359" t="n">
+        <v>0.7573820439354064</v>
+      </c>
+      <c r="F359" t="n">
         <v>0.005572439882033821</v>
       </c>
-      <c r="F359" t="n">
+      <c r="G359" t="n">
         <v>12.63834046194798</v>
       </c>
     </row>
@@ -9790,12 +10869,15 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>-0.1204997636702806</v>
+        <v>-0.1204997636702801</v>
       </c>
       <c r="E360" t="n">
+        <v>0.001738322684309526</v>
+      </c>
+      <c r="F360" t="n">
         <v>-117.9586802873084</v>
       </c>
-      <c r="F360" t="n">
+      <c r="G360" t="n">
         <v>43949.6916131762</v>
       </c>
     </row>
@@ -9816,12 +10898,15 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>0.1935801094884276</v>
+        <v>0.1935801094884269</v>
       </c>
       <c r="E361" t="n">
+        <v>4.181362365449874e-07</v>
+      </c>
+      <c r="F361" t="n">
         <v>1.338353474877018</v>
       </c>
-      <c r="F361" t="n">
+      <c r="G361" t="n">
         <v>158.5480523970009</v>
       </c>
     </row>
@@ -9842,12 +10927,15 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>0.02264094053545402</v>
+        <v>0.02264094053545403</v>
       </c>
       <c r="E362" t="n">
+        <v>0.5369483770554943</v>
+      </c>
+      <c r="F362" t="n">
         <v>8.250378420692266e-05</v>
       </c>
-      <c r="F362" t="n">
+      <c r="G362" t="n">
         <v>0.0383697686349819</v>
       </c>
     </row>
@@ -9868,12 +10956,15 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>0.03838283682447777</v>
+        <v>0.038382836824478</v>
       </c>
       <c r="E363" t="n">
+        <v>0.2951095907923473</v>
+      </c>
+      <c r="F363" t="n">
         <v>0.000115346661860505</v>
       </c>
-      <c r="F363" t="n">
+      <c r="G363" t="n">
         <v>0.02381297311620374</v>
       </c>
     </row>
@@ -9894,12 +10985,15 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>-0.1640328672675709</v>
+        <v>-0.1640328672675714</v>
       </c>
       <c r="E364" t="n">
+        <v>6.692095916010453e-06</v>
+      </c>
+      <c r="F364" t="n">
         <v>-6.721970054369667e-05</v>
       </c>
-      <c r="F364" t="n">
+      <c r="G364" t="n">
         <v>0.01076019074378873</v>
       </c>
     </row>
@@ -9920,12 +11014,15 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>0.2550954906021715</v>
+        <v>0.2550954906021721</v>
       </c>
       <c r="E365" t="n">
+        <v>1.51527458378483e-12</v>
+      </c>
+      <c r="F365" t="n">
         <v>0.005113664444708317</v>
       </c>
-      <c r="F365" t="n">
+      <c r="G365" t="n">
         <v>-0.1002902612391443</v>
       </c>
     </row>
@@ -9946,12 +11043,15 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>0.2570218405634745</v>
+        <v>0.257021840563476</v>
       </c>
       <c r="E366" t="n">
+        <v>1.015743155970606e-12</v>
+      </c>
+      <c r="F366" t="n">
         <v>4.115801925601067e-05</v>
       </c>
-      <c r="F366" t="n">
+      <c r="G366" t="n">
         <v>-0.001274686406730325</v>
       </c>
     </row>
@@ -9972,12 +11072,15 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>0.2409680091638504</v>
+        <v>0.2409680091638515</v>
       </c>
       <c r="E367" t="n">
+        <v>2.574877705212946e-11</v>
+      </c>
+      <c r="F367" t="n">
         <v>0.004714457058118932</v>
       </c>
-      <c r="F367" t="n">
+      <c r="G367" t="n">
         <v>-0.08536571771095489</v>
       </c>
     </row>
@@ -9998,12 +11101,15 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>-0.08083014611546004</v>
+        <v>-0.08083014611546009</v>
       </c>
       <c r="E368" t="n">
+        <v>0.02727043150867954</v>
+      </c>
+      <c r="F368" t="n">
         <v>-0.001035003019061683</v>
       </c>
-      <c r="F368" t="n">
+      <c r="G368" t="n">
         <v>0.2617152918355169</v>
       </c>
     </row>
@@ -10024,12 +11130,15 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>-0.1006064631976504</v>
+        <v>-0.1006064631976509</v>
       </c>
       <c r="E369" t="n">
+        <v>0.005955214204124189</v>
+      </c>
+      <c r="F369" t="n">
         <v>-0.001185470799620201</v>
       </c>
-      <c r="F369" t="n">
+      <c r="G369" t="n">
         <v>0.2609657095564073</v>
       </c>
     </row>
@@ -10050,12 +11159,15 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>0.03884420935924587</v>
+        <v>0.03884420935924603</v>
       </c>
       <c r="E370" t="n">
+        <v>0.2893390313389214</v>
+      </c>
+      <c r="F370" t="n">
         <v>0.0001906396177559781</v>
       </c>
-      <c r="F370" t="n">
+      <c r="G370" t="n">
         <v>-0.002334274667928148</v>
       </c>
     </row>
@@ -10076,12 +11188,15 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>0.1081401987998033</v>
+        <v>0.1081401987998024</v>
       </c>
       <c r="E371" t="n">
+        <v>0.002675510507287118</v>
+      </c>
+      <c r="F371" t="n">
         <v>0.001334757867849433</v>
       </c>
-      <c r="F371" t="n">
+      <c r="G371" t="n">
         <v>0.6033943045865831</v>
       </c>
     </row>
@@ -10102,12 +11217,15 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>-0.2235924578038677</v>
+        <v>-0.2235924578038671</v>
       </c>
       <c r="E372" t="n">
+        <v>3.613525927838084e-10</v>
+      </c>
+      <c r="F372" t="n">
         <v>-0.002241711500598095</v>
       </c>
-      <c r="F372" t="n">
+      <c r="G372" t="n">
         <v>0.3284324129506219</v>
       </c>
     </row>
@@ -10128,12 +11246,15 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>0.03225295384888321</v>
+        <v>0.03225295384888301</v>
       </c>
       <c r="E373" t="n">
+        <v>0.3717611870712107</v>
+      </c>
+      <c r="F373" t="n">
         <v>3.040009322674563e-05</v>
       </c>
-      <c r="F373" t="n">
+      <c r="G373" t="n">
         <v>0.005736016639572588</v>
       </c>
     </row>
@@ -10154,12 +11275,15 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>0.01405968752209339</v>
+        <v>0.01405968752209335</v>
       </c>
       <c r="E374" t="n">
+        <v>0.6970748842914244</v>
+      </c>
+      <c r="F374" t="n">
         <v>0.0001056146965809663</v>
       </c>
-      <c r="F374" t="n">
+      <c r="G374" t="n">
         <v>0.9340479056129121</v>
       </c>
     </row>
@@ -10180,12 +11304,15 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>-0.008247013532568501</v>
+        <v>-0.008247013532568391</v>
       </c>
       <c r="E375" t="n">
+        <v>0.8193908310999184</v>
+      </c>
+      <c r="F375" t="n">
         <v>-7.0708767786369e-05</v>
       </c>
-      <c r="F375" t="n">
+      <c r="G375" t="n">
         <v>0.9609572775110524</v>
       </c>
     </row>
@@ -10206,12 +11333,15 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>0.03772010230412745</v>
+        <v>0.03772010230412739</v>
       </c>
       <c r="E376" t="n">
+        <v>0.2961705632797137</v>
+      </c>
+      <c r="F376" t="n">
         <v>0.0003015413611332676</v>
       </c>
-      <c r="F376" t="n">
+      <c r="G376" t="n">
         <v>0.02072085388120784</v>
       </c>
     </row>
@@ -10232,12 +11362,15 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>-0.2482174669688266</v>
+        <v>-0.2482174669688247</v>
       </c>
       <c r="E377" t="n">
+        <v>6.354697749858727e-12</v>
+      </c>
+      <c r="F377" t="n">
         <v>-0.002275675264426668</v>
       </c>
-      <c r="F377" t="n">
+      <c r="G377" t="n">
         <v>0.2691858542944959</v>
       </c>
     </row>
@@ -10258,12 +11391,15 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>-0.06635581457330339</v>
+        <v>-0.06635581457330315</v>
       </c>
       <c r="E378" t="n">
+        <v>0.09375085936908692</v>
+      </c>
+      <c r="F378" t="n">
         <v>-0.0003520032302209242</v>
       </c>
-      <c r="F378" t="n">
+      <c r="G378" t="n">
         <v>0.05773740941985789</v>
       </c>
     </row>
@@ -10284,12 +11420,15 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>-0.2742195206354227</v>
+        <v>-0.2742195206354217</v>
       </c>
       <c r="E379" t="n">
+        <v>2.562762585119084e-14</v>
+      </c>
+      <c r="F379" t="n">
         <v>-0.004628497837774277</v>
       </c>
-      <c r="F379" t="n">
+      <c r="G379" t="n">
         <v>0.6482591642196092</v>
       </c>
     </row>
@@ -10310,12 +11449,15 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>0.01941665461214191</v>
+        <v>0.01941665461214175</v>
       </c>
       <c r="E380" t="n">
+        <v>0.5967142218117002</v>
+      </c>
+      <c r="F380" t="n">
         <v>0.000545690193327805</v>
       </c>
-      <c r="F380" t="n">
+      <c r="G380" t="n">
         <v>0.3649613907361128</v>
       </c>
     </row>
@@ -10336,12 +11478,15 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>0.1560614454734934</v>
+        <v>0.1560614454734927</v>
       </c>
       <c r="E381" t="n">
+        <v>1.87955340072593e-05</v>
+      </c>
+      <c r="F381" t="n">
         <v>0.0009381300034073836</v>
       </c>
-      <c r="F381" t="n">
+      <c r="G381" t="n">
         <v>-0.02314508968681249</v>
       </c>
     </row>
@@ -10362,12 +11507,15 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>-0.2678928978539769</v>
+        <v>-0.2678928978539751</v>
       </c>
       <c r="E382" t="n">
+        <v>1.036920851176729e-13</v>
+      </c>
+      <c r="F382" t="n">
         <v>-0.01143757270033765</v>
       </c>
-      <c r="F382" t="n">
+      <c r="G382" t="n">
         <v>1.699563051584556</v>
       </c>
     </row>
@@ -10388,12 +11536,15 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>-0.2509039749779258</v>
+        <v>-0.2509039749779274</v>
       </c>
       <c r="E383" t="n">
+        <v>4.221819739184345e-12</v>
+      </c>
+      <c r="F383" t="n">
         <v>-0.0003272252999335599</v>
       </c>
-      <c r="F383" t="n">
+      <c r="G383" t="n">
         <v>0.03634260615822323</v>
       </c>
     </row>
@@ -10414,12 +11565,15 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>-0.2174751238674015</v>
+        <v>-0.2174751238674031</v>
       </c>
       <c r="E384" t="n">
+        <v>2.208197483414895e-09</v>
+      </c>
+      <c r="F384" t="n">
         <v>-0.0002813844537634996</v>
       </c>
-      <c r="F384" t="n">
+      <c r="G384" t="n">
         <v>0.0322929626770223</v>
       </c>
     </row>
@@ -10440,12 +11594,15 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>-0.37111346252931</v>
+        <v>-0.3711134625293087</v>
       </c>
       <c r="E385" t="n">
+        <v>9.673674911473724e-26</v>
+      </c>
+      <c r="F385" t="n">
         <v>-0.003419950909956285</v>
       </c>
-      <c r="F385" t="n">
+      <c r="G385" t="n">
         <v>0.3278764667736064</v>
       </c>
     </row>
@@ -10466,12 +11623,15 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>-0.2311289333254167</v>
+        <v>-0.231128933325415</v>
       </c>
       <c r="E386" t="n">
+        <v>1.717959677765573e-10</v>
+      </c>
+      <c r="F386" t="n">
         <v>-0.006219015738421855</v>
       </c>
-      <c r="F386" t="n">
+      <c r="G386" t="n">
         <v>0.8149333863128828</v>
       </c>
     </row>
@@ -10492,12 +11652,15 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>-0.1555423922772733</v>
+        <v>-0.1555423922772723</v>
       </c>
       <c r="E387" t="n">
+        <v>2.005013038718805e-05</v>
+      </c>
+      <c r="F387" t="n">
         <v>-0.009742369674710471</v>
       </c>
-      <c r="F387" t="n">
+      <c r="G387" t="n">
         <v>2.101616340591914</v>
       </c>
     </row>
@@ -10518,12 +11681,15 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>-0.2167287098221534</v>
+        <v>-0.2167287098221548</v>
       </c>
       <c r="E388" t="n">
+        <v>2.512095407305704e-09</v>
+      </c>
+      <c r="F388" t="n">
         <v>-0.001552123077788419</v>
       </c>
-      <c r="F388" t="n">
+      <c r="G388" t="n">
         <v>0.181915516981621</v>
       </c>
     </row>
@@ -10544,12 +11710,15 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>-0.2555822200711536</v>
+        <v>-0.2555822200711539</v>
       </c>
       <c r="E389" t="n">
+        <v>8.461850082433343e-13</v>
+      </c>
+      <c r="F389" t="n">
         <v>-0.0009120646863799344</v>
       </c>
-      <c r="F389" t="n">
+      <c r="G389" t="n">
         <v>0.1193160773242102</v>
       </c>
     </row>
@@ -10570,12 +11739,15 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>0.2508311567903788</v>
+        <v>0.2508311567903794</v>
       </c>
       <c r="E390" t="n">
+        <v>2.282773916831315e-12</v>
+      </c>
+      <c r="F390" t="n">
         <v>0.003086021486968898</v>
       </c>
-      <c r="F390" t="n">
+      <c r="G390" t="n">
         <v>0.06069581195263191</v>
       </c>
     </row>
@@ -10596,12 +11768,15 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>-0.340362962887393</v>
+        <v>-0.3403629628873938</v>
       </c>
       <c r="E391" t="n">
+        <v>4.567375879036591e-22</v>
+      </c>
+      <c r="F391" t="n">
         <v>-0.004547315262598341</v>
       </c>
-      <c r="F391" t="n">
+      <c r="G391" t="n">
         <v>0.9579739918826321</v>
       </c>
     </row>
@@ -10622,12 +11797,15 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>-0.2426156861223721</v>
+        <v>-0.2426156861223728</v>
       </c>
       <c r="E392" t="n">
+        <v>1.210268635395712e-11</v>
+      </c>
+      <c r="F392" t="n">
         <v>-0.003332865049510875</v>
       </c>
-      <c r="F392" t="n">
+      <c r="G392" t="n">
         <v>0.9330263543559711</v>
       </c>
     </row>
@@ -10648,12 +11826,15 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>0.04244545292485463</v>
+        <v>0.04244545292485495</v>
       </c>
       <c r="E393" t="n">
+        <v>0.2437554873142839</v>
+      </c>
+      <c r="F393" t="n">
         <v>0.0006309922952134546</v>
       </c>
-      <c r="F393" t="n">
+      <c r="G393" t="n">
         <v>0.6005247089884578</v>
       </c>
     </row>
@@ -10674,12 +11855,15 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>0.3570061525509545</v>
+        <v>0.3570061525509554</v>
       </c>
       <c r="E394" t="n">
+        <v>7.634939934635739e-24</v>
+      </c>
+      <c r="F394" t="n">
         <v>0.001014342072827627</v>
       </c>
-      <c r="F394" t="n">
+      <c r="G394" t="n">
         <v>-0.03111454706036684</v>
       </c>
     </row>
@@ -10700,12 +11884,15 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>-0.01386644870594788</v>
+        <v>-0.01386644870594795</v>
       </c>
       <c r="E395" t="n">
+        <v>0.7053433813255569</v>
+      </c>
+      <c r="F395" t="n">
         <v>-3.104812785702428e-05</v>
       </c>
-      <c r="F395" t="n">
+      <c r="G395" t="n">
         <v>0.0319366707455211</v>
       </c>
     </row>
@@ -10726,12 +11913,15 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>0.1119110050494487</v>
+        <v>0.1119110050494492</v>
       </c>
       <c r="E396" t="n">
+        <v>0.00220510367743527</v>
+      </c>
+      <c r="F396" t="n">
         <v>6.1828903525806e-05</v>
       </c>
-      <c r="F396" t="n">
+      <c r="G396" t="n">
         <v>0.002563281121635905</v>
       </c>
     </row>
@@ -10752,12 +11942,15 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>-0.1828577883756932</v>
+        <v>-0.1828577883756935</v>
       </c>
       <c r="E397" t="n">
+        <v>0.0001475849224036837</v>
+      </c>
+      <c r="F397" t="n">
         <v>-0.02160669616343767</v>
       </c>
-      <c r="F397" t="n">
+      <c r="G397" t="n">
         <v>7.547889386745631</v>
       </c>
     </row>
@@ -10778,12 +11971,15 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>0.2118832057886467</v>
+        <v>0.2118832057886471</v>
       </c>
       <c r="E398" t="n">
+        <v>8.107877147017992e-06</v>
+      </c>
+      <c r="F398" t="n">
         <v>0.3811265074923822</v>
       </c>
-      <c r="F398" t="n">
+      <c r="G398" t="n">
         <v>31.15757326154566</v>
       </c>
     </row>
@@ -10804,12 +12000,15 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>0.09333076133241777</v>
+        <v>0.09333076133241767</v>
       </c>
       <c r="E399" t="n">
+        <v>0.02720969792227831</v>
+      </c>
+      <c r="F399" t="n">
         <v>0.6365891001739731</v>
       </c>
-      <c r="F399" t="n">
+      <c r="G399" t="n">
         <v>122.9422621478711</v>
       </c>
     </row>
@@ -10830,12 +12029,15 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>-0.1101827366108777</v>
+        <v>-0.1101827366108775</v>
       </c>
       <c r="E400" t="n">
+        <v>0.009446918066730144</v>
+      </c>
+      <c r="F400" t="n">
         <v>-0.06005827391283051</v>
       </c>
-      <c r="F400" t="n">
+      <c r="G400" t="n">
         <v>7.232496017398406</v>
       </c>
     </row>
@@ -10856,12 +12058,15 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>0.08091386458725096</v>
+        <v>0.08091386458725104</v>
       </c>
       <c r="E401" t="n">
+        <v>0.05700059004170475</v>
+      </c>
+      <c r="F401" t="n">
         <v>0.007728874739758304</v>
       </c>
-      <c r="F401" t="n">
+      <c r="G401" t="n">
         <v>0.763060706483516</v>
       </c>
     </row>
@@ -10882,12 +12087,15 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>-0.5847780515458195</v>
+        <v>-0.584778051545816</v>
       </c>
       <c r="E402" t="n">
+        <v>0</v>
+      </c>
+      <c r="F402" t="n">
         <v>-16985701.6007483</v>
       </c>
-      <c r="F402" t="n">
+      <c r="G402" t="n">
         <v>1464636302.639908</v>
       </c>
     </row>
@@ -10908,12 +12116,15 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>-0.5847780415532274</v>
+        <v>-0.584778041553224</v>
       </c>
       <c r="E403" t="n">
+        <v>0</v>
+      </c>
+      <c r="F403" t="n">
         <v>-16985.70162680654</v>
       </c>
-      <c r="F403" t="n">
+      <c r="G403" t="n">
         <v>1464636.284776621</v>
       </c>
     </row>
@@ -10934,12 +12145,15 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>0.05633884195728238</v>
+        <v>0.05633884195728311</v>
       </c>
       <c r="E404" t="n">
+        <v>0.0003627607616936089</v>
+      </c>
+      <c r="F404" t="n">
         <v>1.598412518431823</v>
       </c>
-      <c r="F404" t="n">
+      <c r="G404" t="n">
         <v>196.7760321785687</v>
       </c>
     </row>
@@ -10960,12 +12174,15 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>-0.01301124061197778</v>
+        <v>-0.01301124061197684</v>
       </c>
       <c r="E405" t="n">
+        <v>0.454472236078944</v>
+      </c>
+      <c r="F405" t="n">
         <v>-8.087310243670718e-05</v>
       </c>
-      <c r="F405" t="n">
+      <c r="G405" t="n">
         <v>0.05503894689232442</v>
       </c>
     </row>
@@ -10986,12 +12203,15 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>0.006570334562232303</v>
+        <v>0.00657033456223203</v>
       </c>
       <c r="E406" t="n">
+        <v>0.7056547164852419</v>
+      </c>
+      <c r="F406" t="n">
         <v>9.021767470447127e-05</v>
       </c>
-      <c r="F406" t="n">
+      <c r="G406" t="n">
         <v>0.1990140436268915</v>
       </c>
     </row>
@@ -11012,12 +12232,15 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>-0.06331503033045059</v>
+        <v>-0.0633150303304518</v>
       </c>
       <c r="E407" t="n">
+        <v>0.0002090800820889108</v>
+      </c>
+      <c r="F407" t="n">
         <v>-0.00224445135186253</v>
       </c>
-      <c r="F407" t="n">
+      <c r="G407" t="n">
         <v>4.03048669419613</v>
       </c>
     </row>
@@ -11038,12 +12261,15 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>-0.05371702993472916</v>
+        <v>-0.05371702993472951</v>
       </c>
       <c r="E408" t="n">
+        <v>0.001661824408252248</v>
+      </c>
+      <c r="F408" t="n">
         <v>-0.200827428399227</v>
       </c>
-      <c r="F408" t="n">
+      <c r="G408" t="n">
         <v>96.9960628487032</v>
       </c>
     </row>
@@ -11064,12 +12290,15 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>-0.1878581971611556</v>
+        <v>-0.1878581971611585</v>
       </c>
       <c r="E409" t="n">
+        <v>1.419134494211227e-28</v>
+      </c>
+      <c r="F409" t="n">
         <v>-0.3049753665713691</v>
       </c>
-      <c r="F409" t="n">
+      <c r="G409" t="n">
         <v>42.12778062871371</v>
       </c>
     </row>
@@ -11090,12 +12319,15 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>-0.1337060046442652</v>
+        <v>-0.1337060046442648</v>
       </c>
       <c r="E410" t="n">
+        <v>1.156476762261208e-14</v>
+      </c>
+      <c r="F410" t="n">
         <v>-0.009588887316050898</v>
       </c>
-      <c r="F410" t="n">
+      <c r="G410" t="n">
         <v>2.731470567465758</v>
       </c>
     </row>
@@ -11116,12 +12348,15 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>0.04811716995703055</v>
+        <v>0.0481171699570296</v>
       </c>
       <c r="E411" t="n">
+        <v>0.005646932643655577</v>
+      </c>
+      <c r="F411" t="n">
         <v>0.0008908759073308013</v>
       </c>
-      <c r="F411" t="n">
+      <c r="G411" t="n">
         <v>0.499446528051261</v>
       </c>
     </row>
@@ -11142,12 +12377,15 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>0.003522949802889102</v>
+        <v>0.003522949802889047</v>
       </c>
       <c r="E412" t="n">
+        <v>0.8395128620132664</v>
+      </c>
+      <c r="F412" t="n">
         <v>0.0005614061089423951</v>
       </c>
-      <c r="F412" t="n">
+      <c r="G412" t="n">
         <v>4.112196582142767</v>
       </c>
     </row>
@@ -11168,12 +12406,15 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>-0.06705518144546348</v>
+        <v>-0.0670551814454641</v>
       </c>
       <c r="E413" t="n">
+        <v>9.272155202209292e-05</v>
+      </c>
+      <c r="F413" t="n">
         <v>-0.09065582256592979</v>
       </c>
-      <c r="F413" t="n">
+      <c r="G413" t="n">
         <v>28.80328794895268</v>
       </c>
     </row>
@@ -11194,12 +12435,15 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>0.02656661678274957</v>
+        <v>0.02656661678274948</v>
       </c>
       <c r="E414" t="n">
+        <v>0.1266502149033785</v>
+      </c>
+      <c r="F414" t="n">
         <v>0.001819928016455885</v>
       </c>
-      <c r="F414" t="n">
+      <c r="G414" t="n">
         <v>0.7227933252795991</v>
       </c>
     </row>
@@ -11220,12 +12464,15 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>0.132787927215484</v>
+        <v>0.1327879272154829</v>
       </c>
       <c r="E415" t="n">
+        <v>6.988266448916662e-15</v>
+      </c>
+      <c r="F415" t="n">
         <v>0.003369770167840238</v>
       </c>
-      <c r="F415" t="n">
+      <c r="G415" t="n">
         <v>0.224949164203436</v>
       </c>
     </row>
@@ -11246,12 +12493,15 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>0.2767109272020144</v>
+        <v>0.2767109272020182</v>
       </c>
       <c r="E416" t="n">
+        <v>3.026419564685643e-61</v>
+      </c>
+      <c r="F416" t="n">
         <v>0.1937105612344937</v>
       </c>
-      <c r="F416" t="n">
+      <c r="G416" t="n">
         <v>3.916852454913968</v>
       </c>
     </row>
@@ -11272,12 +12522,15 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>0.05627242037562382</v>
+        <v>0.05627242037562428</v>
       </c>
       <c r="E417" t="n">
+        <v>0.0010267390544763</v>
+      </c>
+      <c r="F417" t="n">
         <v>0.002351356813341277</v>
       </c>
-      <c r="F417" t="n">
+      <c r="G417" t="n">
         <v>9.095938757652217</v>
       </c>
     </row>
@@ -11298,12 +12551,15 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>-0.02417702601139299</v>
+        <v>-0.02417702601139357</v>
       </c>
       <c r="E418" t="n">
+        <v>0.1571815698735599</v>
+      </c>
+      <c r="F418" t="n">
         <v>-0.1018602365083527</v>
       </c>
-      <c r="F418" t="n">
+      <c r="G418" t="n">
         <v>197.9808680546489</v>
       </c>
     </row>
@@ -11324,12 +12580,15 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>-0.1091795616946334</v>
+        <v>-0.1091795616946338</v>
       </c>
       <c r="E419" t="n">
+        <v>1.489993777737289e-10</v>
+      </c>
+      <c r="F419" t="n">
         <v>-0.03480043706403361</v>
       </c>
-      <c r="F419" t="n">
+      <c r="G419" t="n">
         <v>102.5659171596615</v>
       </c>
     </row>
@@ -11350,12 +12609,15 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>0.01297569256241357</v>
+        <v>0.01297569256241346</v>
       </c>
       <c r="E420" t="n">
+        <v>0.4478365322197881</v>
+      </c>
+      <c r="F420" t="n">
         <v>0.5250393937818436</v>
       </c>
-      <c r="F420" t="n">
+      <c r="G420" t="n">
         <v>311.5639639486234</v>
       </c>
     </row>
@@ -11376,12 +12638,15 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>0.02060974947981726</v>
+        <v>0.02060974947981791</v>
       </c>
       <c r="E421" t="n">
+        <v>0.229515796140886</v>
+      </c>
+      <c r="F421" t="n">
         <v>0.005409798962545287</v>
       </c>
-      <c r="F421" t="n">
+      <c r="G421" t="n">
         <v>23.89902776984697</v>
       </c>
     </row>
@@ -11402,12 +12667,15 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>0.09101688893744807</v>
+        <v>0.09101688893744821</v>
       </c>
       <c r="E422" t="n">
+        <v>9.193045410070483e-08</v>
+      </c>
+      <c r="F422" t="n">
         <v>0.004229028233642607</v>
       </c>
-      <c r="F422" t="n">
+      <c r="G422" t="n">
         <v>0.6191251472846996</v>
       </c>
     </row>
@@ -11428,12 +12696,15 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>-0.005008192375077933</v>
+        <v>-0.00500819237507795</v>
       </c>
       <c r="E423" t="n">
+        <v>0.7695284241649588</v>
+      </c>
+      <c r="F423" t="n">
         <v>-0.004471992064894261</v>
       </c>
-      <c r="F423" t="n">
+      <c r="G423" t="n">
         <v>5.152728509793094</v>
       </c>
     </row>
@@ -11454,12 +12725,15 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>0.344310725958337</v>
+        <v>0.3443107259583397</v>
       </c>
       <c r="E424" t="n">
+        <v>6.349712688461987e-96</v>
+      </c>
+      <c r="F424" t="n">
         <v>0.01422855509306457</v>
       </c>
-      <c r="F424" t="n">
+      <c r="G424" t="n">
         <v>0.1762478592158662</v>
       </c>
     </row>
@@ -11480,12 +12754,15 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>-0.3049652207334443</v>
+        <v>-0.3049652207334407</v>
       </c>
       <c r="E425" t="n">
+        <v>5.355675543964934e-74</v>
+      </c>
+      <c r="F425" t="n">
         <v>-0.06226679353273926</v>
       </c>
-      <c r="F425" t="n">
+      <c r="G425" t="n">
         <v>6.661281024020738</v>
       </c>
     </row>
@@ -11506,12 +12783,15 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>0.040037729348066</v>
+        <v>0.04003772934806531</v>
       </c>
       <c r="E426" t="n">
+        <v>0.02130793287615149</v>
+      </c>
+      <c r="F426" t="n">
         <v>0.008291846812049149</v>
       </c>
-      <c r="F426" t="n">
+      <c r="G426" t="n">
         <v>2.434448203526837</v>
       </c>
     </row>
@@ -11532,12 +12812,15 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>-0.04097374180072064</v>
+        <v>-0.04097374180072055</v>
       </c>
       <c r="E427" t="n">
+        <v>0.01689741414092743</v>
+      </c>
+      <c r="F427" t="n">
         <v>-0.9879670310896559</v>
       </c>
-      <c r="F427" t="n">
+      <c r="G427" t="n">
         <v>230.2940428063932</v>
       </c>
     </row>
@@ -11558,12 +12841,15 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>0.01926647144511029</v>
+        <v>0.01926647144511023</v>
       </c>
       <c r="E428" t="n">
+        <v>0.2624463204314678</v>
+      </c>
+      <c r="F428" t="n">
         <v>0.1138918475192324</v>
       </c>
-      <c r="F428" t="n">
+      <c r="G428" t="n">
         <v>113.8354851852102</v>
       </c>
     </row>
@@ -11584,12 +12870,15 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>-0.1276285878897877</v>
+        <v>-0.1276285878897859</v>
       </c>
       <c r="E429" t="n">
+        <v>1.776574775112098e-13</v>
+      </c>
+      <c r="F429" t="n">
         <v>-0.05400779204581718</v>
       </c>
-      <c r="F429" t="n">
+      <c r="G429" t="n">
         <v>45.11239388439275</v>
       </c>
     </row>
@@ -11610,12 +12899,15 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>0.0336909853342268</v>
+        <v>0.03369098533422731</v>
       </c>
       <c r="E430" t="n">
+        <v>0.04866050752370039</v>
+      </c>
+      <c r="F430" t="n">
         <v>0.06365510527424803</v>
       </c>
-      <c r="F430" t="n">
+      <c r="G430" t="n">
         <v>48.11114479869449</v>
       </c>
     </row>
@@ -11636,12 +12928,15 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>-0.1725007253184575</v>
+        <v>-0.1725007253184571</v>
       </c>
       <c r="E431" t="n">
+        <v>1.66638396242208e-23</v>
+      </c>
+      <c r="F431" t="n">
         <v>-0.02669680889355051</v>
       </c>
-      <c r="F431" t="n">
+      <c r="G431" t="n">
         <v>15.36862880120114</v>
       </c>
     </row>
@@ -11662,12 +12957,15 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>0.08234584411308102</v>
+        <v>0.08234584411308203</v>
       </c>
       <c r="E432" t="n">
+        <v>1.446054898028465e-06</v>
+      </c>
+      <c r="F432" t="n">
         <v>0.003842315646754494</v>
       </c>
-      <c r="F432" t="n">
+      <c r="G432" t="n">
         <v>3.922489585073159</v>
       </c>
     </row>
@@ -11688,12 +12986,15 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>-0.02980048107648349</v>
+        <v>-0.02980048107648329</v>
       </c>
       <c r="E433" t="n">
+        <v>0.09209842528907514</v>
+      </c>
+      <c r="F433" t="n">
         <v>-0.109645564785133</v>
       </c>
-      <c r="F433" t="n">
+      <c r="G433" t="n">
         <v>113.2445417882133</v>
       </c>
     </row>
@@ -11714,12 +13015,15 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>-0.1428779633848074</v>
+        <v>-0.1428779633848061</v>
       </c>
       <c r="E434" t="n">
+        <v>1.510191701120595e-16</v>
+      </c>
+      <c r="F434" t="n">
         <v>-0.1190823211214554</v>
       </c>
-      <c r="F434" t="n">
+      <c r="G434" t="n">
         <v>38.22099756875556</v>
       </c>
     </row>
@@ -11740,12 +13044,15 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>0.07241438920873929</v>
+        <v>0.07241438920873898</v>
       </c>
       <c r="E435" t="n">
+        <v>3.467687124486945e-05</v>
+      </c>
+      <c r="F435" t="n">
         <v>0.01554116167051055</v>
       </c>
-      <c r="F435" t="n">
+      <c r="G435" t="n">
         <v>29.59455337882349</v>
       </c>
     </row>
@@ -11766,12 +13073,15 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>-0.1681015986844601</v>
+        <v>-0.168101598684459</v>
       </c>
       <c r="E436" t="n">
+        <v>2.604290681820515e-22</v>
+      </c>
+      <c r="F436" t="n">
         <v>-0.02008032203598544</v>
       </c>
-      <c r="F436" t="n">
+      <c r="G436" t="n">
         <v>34.06491159270011</v>
       </c>
     </row>
@@ -11792,12 +13102,15 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>0.2183407749354226</v>
+        <v>0.2183407749354213</v>
       </c>
       <c r="E437" t="n">
+        <v>6.131202870624088e-37</v>
+      </c>
+      <c r="F437" t="n">
         <v>0.1527390236479381</v>
       </c>
-      <c r="F437" t="n">
+      <c r="G437" t="n">
         <v>83.20112400300506</v>
       </c>
     </row>
@@ -11818,12 +13131,15 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>0.1319786265928075</v>
+        <v>0.1319786265928073</v>
       </c>
       <c r="E438" t="n">
+        <v>2.534480002970453e-14</v>
+      </c>
+      <c r="F438" t="n">
         <v>0.02966829334393133</v>
       </c>
-      <c r="F438" t="n">
+      <c r="G438" t="n">
         <v>6.069094155516187</v>
       </c>
     </row>
@@ -11844,12 +13160,15 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>0.0390301521587284</v>
+        <v>0.03903015215872777</v>
       </c>
       <c r="E439" t="n">
+        <v>0.02533020203368461</v>
+      </c>
+      <c r="F439" t="n">
         <v>0.00433294811714684</v>
       </c>
-      <c r="F439" t="n">
+      <c r="G439" t="n">
         <v>11.01508704312008</v>
       </c>
     </row>
@@ -11870,12 +13189,15 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>-0.002499396955669656</v>
+        <v>-0.002499396955669432</v>
       </c>
       <c r="E440" t="n">
+        <v>0.8837474873811835</v>
+      </c>
+      <c r="F440" t="n">
         <v>-0.0007580708367480572</v>
       </c>
-      <c r="F440" t="n">
+      <c r="G440" t="n">
         <v>139.1595708320602</v>
       </c>
     </row>
@@ -11896,12 +13218,15 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>0.08253102627653876</v>
+        <v>0.08253102627653849</v>
       </c>
       <c r="E441" t="n">
+        <v>2.010292520105714e-06</v>
+      </c>
+      <c r="F441" t="n">
         <v>0.07614109272705542</v>
       </c>
-      <c r="F441" t="n">
+      <c r="G441" t="n">
         <v>52.7717762860017</v>
       </c>
     </row>
@@ -11922,12 +13247,15 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>0.280514277831756</v>
+        <v>0.2805142778317583</v>
       </c>
       <c r="E442" t="n">
+        <v>1.227018722618626e-61</v>
+      </c>
+      <c r="F442" t="n">
         <v>15.54056067097693</v>
       </c>
-      <c r="F442" t="n">
+      <c r="G442" t="n">
         <v>-806.1826913082585</v>
       </c>
     </row>
@@ -11948,12 +13276,15 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>0.01297485000893284</v>
+        <v>0.01297485000893268</v>
       </c>
       <c r="E443" t="n">
+        <v>0.4573761953265598</v>
+      </c>
+      <c r="F443" t="n">
         <v>0.003427467274575908</v>
       </c>
-      <c r="F443" t="n">
+      <c r="G443" t="n">
         <v>13.97137411922461</v>
       </c>
     </row>
@@ -11974,12 +13305,15 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>-0.146232964060849</v>
+        <v>-0.1462329640608513</v>
       </c>
       <c r="E444" t="n">
+        <v>3.135534792095458e-17</v>
+      </c>
+      <c r="F444" t="n">
         <v>-0.9255879705682232</v>
       </c>
-      <c r="F444" t="n">
+      <c r="G444" t="n">
         <v>295.7139018374136</v>
       </c>
     </row>
@@ -12000,12 +13334,15 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>-0.2409000295606693</v>
+        <v>-0.2409000295606646</v>
       </c>
       <c r="E445" t="n">
+        <v>7.12012288656603e-45</v>
+      </c>
+      <c r="F445" t="n">
         <v>-0.01341042705773035</v>
       </c>
-      <c r="F445" t="n">
+      <c r="G445" t="n">
         <v>5.362178004024432</v>
       </c>
     </row>
@@ -12026,12 +13363,15 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>0.1091453695296869</v>
+        <v>0.1091453695296866</v>
       </c>
       <c r="E446" t="n">
+        <v>3.113775879559863e-10</v>
+      </c>
+      <c r="F446" t="n">
         <v>0.01725643658670772</v>
       </c>
-      <c r="F446" t="n">
+      <c r="G446" t="n">
         <v>12.89957308180836</v>
       </c>
     </row>
@@ -12052,12 +13392,15 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>-0.04237861106153118</v>
+        <v>-0.0423786110615316</v>
       </c>
       <c r="E447" t="n">
+        <v>0.01312521619572646</v>
+      </c>
+      <c r="F447" t="n">
         <v>-0.483095124773841</v>
       </c>
-      <c r="F447" t="n">
+      <c r="G447" t="n">
         <v>206.1658693554462</v>
       </c>
     </row>
@@ -12078,12 +13421,15 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>-0.07389970986379427</v>
+        <v>-0.07389970986379492</v>
       </c>
       <c r="E448" t="n">
+        <v>1.49644386965065e-05</v>
+      </c>
+      <c r="F448" t="n">
         <v>-0.00328650414618604</v>
       </c>
-      <c r="F448" t="n">
+      <c r="G448" t="n">
         <v>7.142709128506461</v>
       </c>
     </row>
@@ -12104,12 +13450,15 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>-0.0406325582351061</v>
+        <v>-0.04063255823510564</v>
       </c>
       <c r="E449" t="n">
+        <v>0.01945381653183121</v>
+      </c>
+      <c r="F449" t="n">
         <v>-0.008094069816657359</v>
       </c>
-      <c r="F449" t="n">
+      <c r="G449" t="n">
         <v>7.59372854553435</v>
       </c>
     </row>
@@ -12130,12 +13479,15 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>-0.0182586329892375</v>
+        <v>-0.01825863298923702</v>
       </c>
       <c r="E450" t="n">
+        <v>0.286745281953612</v>
+      </c>
+      <c r="F450" t="n">
         <v>-0.0136250574375476</v>
       </c>
-      <c r="F450" t="n">
+      <c r="G450" t="n">
         <v>4.067609143892072</v>
       </c>
     </row>
@@ -12156,12 +13508,15 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>0.1566192210477708</v>
+        <v>0.1566192210477688</v>
       </c>
       <c r="E451" t="n">
+        <v>3.789162228978514e-20</v>
+      </c>
+      <c r="F451" t="n">
         <v>0.1981403963483171</v>
       </c>
-      <c r="F451" t="n">
+      <c r="G451" t="n">
         <v>13.85646157783917</v>
       </c>
     </row>
@@ -12182,12 +13537,15 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>-0.171627490569867</v>
+        <v>-0.1716274905698659</v>
       </c>
       <c r="E452" t="n">
+        <v>4.923433284632864e-24</v>
+      </c>
+      <c r="F452" t="n">
         <v>-236.1525583076855</v>
       </c>
-      <c r="F452" t="n">
+      <c r="G452" t="n">
         <v>64067.88327704379</v>
       </c>
     </row>
@@ -12208,12 +13566,15 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>0.01793730424057598</v>
+        <v>0.01793730424057573</v>
       </c>
       <c r="E453" t="n">
+        <v>0.2941804181216474</v>
+      </c>
+      <c r="F453" t="n">
         <v>0.01017845376305547</v>
       </c>
-      <c r="F453" t="n">
+      <c r="G453" t="n">
         <v>3.420493174956319</v>
       </c>
     </row>
@@ -12234,12 +13595,15 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>0.08062815536063403</v>
+        <v>0.08062815536063256</v>
       </c>
       <c r="E454" t="n">
+        <v>2.329154164046088e-06</v>
+      </c>
+      <c r="F454" t="n">
         <v>2.809138554002386</v>
       </c>
-      <c r="F454" t="n">
+      <c r="G454" t="n">
         <v>379.300571027115</v>
       </c>
     </row>
@@ -12260,12 +13624,15 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>0.1139254400159965</v>
+        <v>0.1139254400159943</v>
       </c>
       <c r="E455" t="n">
+        <v>2.329354057869931e-11</v>
+      </c>
+      <c r="F455" t="n">
         <v>0.1869196168423192</v>
       </c>
-      <c r="F455" t="n">
+      <c r="G455" t="n">
         <v>-5.344912182111481</v>
       </c>
     </row>
@@ -12286,12 +13653,15 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>0.2632225269255993</v>
+        <v>0.2632225269255963</v>
       </c>
       <c r="E456" t="n">
+        <v>2.446735068076498e-55</v>
+      </c>
+      <c r="F456" t="n">
         <v>23.25415147606438</v>
       </c>
-      <c r="F456" t="n">
+      <c r="G456" t="n">
         <v>242.3061897017487</v>
       </c>
     </row>
@@ -12312,12 +13682,15 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>-0.1884490405170914</v>
+        <v>-0.1884490405170897</v>
       </c>
       <c r="E457" t="n">
+        <v>1.007153816465333e-28</v>
+      </c>
+      <c r="F457" t="n">
         <v>-0.6899441257573807</v>
       </c>
-      <c r="F457" t="n">
+      <c r="G457" t="n">
         <v>142.6707325282201</v>
       </c>
     </row>
@@ -12338,12 +13711,15 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>-0.09310938522605595</v>
+        <v>-0.09310938522605584</v>
       </c>
       <c r="E458" t="n">
+        <v>2.974099695507868e-06</v>
+      </c>
+      <c r="F458" t="n">
         <v>-0.004014709068563082</v>
       </c>
-      <c r="F458" t="n">
+      <c r="G458" t="n">
         <v>1.147564341825931</v>
       </c>
     </row>
@@ -12364,12 +13740,15 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>0.2865709123271296</v>
+        <v>0.2865709123271314</v>
       </c>
       <c r="E459" t="n">
+        <v>1.381712217924845e-51</v>
+      </c>
+      <c r="F459" t="n">
         <v>0.1411052470555176</v>
       </c>
-      <c r="F459" t="n">
+      <c r="G459" t="n">
         <v>3.004081455436339</v>
       </c>
     </row>
@@ -12390,12 +13769,15 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>-0.3431960448234807</v>
+        <v>-0.3431960448234808</v>
       </c>
       <c r="E460" t="n">
+        <v>1.31138195656003e-81</v>
+      </c>
+      <c r="F460" t="n">
         <v>-334.0251466505183</v>
       </c>
-      <c r="F460" t="n">
+      <c r="G460" t="n">
         <v>57675.89656368218</v>
       </c>
     </row>
@@ -12416,12 +13798,15 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>-0.01834870981403903</v>
+        <v>-0.01834870981403895</v>
       </c>
       <c r="E461" t="n">
+        <v>0.3212717686959327</v>
+      </c>
+      <c r="F461" t="n">
         <v>-0.09284622309913701</v>
       </c>
-      <c r="F461" t="n">
+      <c r="G461" t="n">
         <v>229.1269636203472</v>
       </c>
     </row>
@@ -12445,9 +13830,12 @@
         <v>0.01782746819338586</v>
       </c>
       <c r="E462" t="n">
+        <v>0.313529045487449</v>
+      </c>
+      <c r="F462" t="n">
         <v>6.768110291939373e-05</v>
       </c>
-      <c r="F462" t="n">
+      <c r="G462" t="n">
         <v>0.04554763680973299</v>
       </c>
     </row>
@@ -12468,12 +13856,15 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>0.001966755646610233</v>
+        <v>0.001966755646610083</v>
       </c>
       <c r="E463" t="n">
+        <v>0.9114749163532664</v>
+      </c>
+      <c r="F463" t="n">
         <v>5.693074859683021e-06</v>
       </c>
-      <c r="F463" t="n">
+      <c r="G463" t="n">
         <v>0.03386062036550814</v>
       </c>
     </row>
@@ -12494,12 +13885,15 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>0.04288127790192409</v>
+        <v>0.04288127790192391</v>
       </c>
       <c r="E464" t="n">
+        <v>0.01530245559842965</v>
+      </c>
+      <c r="F464" t="n">
         <v>3.707392521220311e-05</v>
       </c>
-      <c r="F464" t="n">
+      <c r="G464" t="n">
         <v>0.003927078083570774</v>
       </c>
     </row>
@@ -12520,12 +13914,15 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>0.08691573479909556</v>
+        <v>0.08691573479909574</v>
       </c>
       <c r="E465" t="n">
+        <v>8.542124905970897e-07</v>
+      </c>
+      <c r="F465" t="n">
         <v>0.001887571465446323</v>
       </c>
-      <c r="F465" t="n">
+      <c r="G465" t="n">
         <v>0.1356192106574147</v>
       </c>
     </row>
@@ -12546,12 +13943,15 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>-0.05691751159169248</v>
+        <v>-0.05691751159169231</v>
       </c>
       <c r="E466" t="n">
+        <v>0.001281519205780073</v>
+      </c>
+      <c r="F466" t="n">
         <v>-1.148200826398206e-05</v>
       </c>
-      <c r="F466" t="n">
+      <c r="G466" t="n">
         <v>0.002371160088064967</v>
       </c>
     </row>
@@ -12572,12 +13972,15 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>0.09084302794308952</v>
+        <v>0.09084302794308931</v>
       </c>
       <c r="E467" t="n">
+        <v>2.662615434260081e-07</v>
+      </c>
+      <c r="F467" t="n">
         <v>0.001909666322670367</v>
       </c>
-      <c r="F467" t="n">
+      <c r="G467" t="n">
         <v>0.1214475573727094</v>
       </c>
     </row>
@@ -12598,12 +14001,15 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>0.06747995098452539</v>
+        <v>0.06747995098452546</v>
       </c>
       <c r="E468" t="n">
+        <v>0.0001340421898988071</v>
+      </c>
+      <c r="F468" t="n">
         <v>0.001001446940084711</v>
       </c>
-      <c r="F468" t="n">
+      <c r="G468" t="n">
         <v>0.1113727164953183</v>
       </c>
     </row>
@@ -12624,12 +14030,15 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>0.09077790561792243</v>
+        <v>0.09077790561792351</v>
       </c>
       <c r="E469" t="n">
+        <v>2.762601646171013e-07</v>
+      </c>
+      <c r="F469" t="n">
         <v>0.001282422390674653</v>
       </c>
-      <c r="F469" t="n">
+      <c r="G469" t="n">
         <v>0.08454797808734343</v>
       </c>
     </row>
@@ -12650,12 +14059,15 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>0.02859713005860052</v>
+        <v>0.02859713005860091</v>
       </c>
       <c r="E470" t="n">
+        <v>0.106120585941316</v>
+      </c>
+      <c r="F470" t="n">
         <v>4.658790569326802e-05</v>
       </c>
-      <c r="F470" t="n">
+      <c r="G470" t="n">
         <v>0.003283462112209969</v>
       </c>
     </row>
@@ -12676,12 +14088,15 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>0.04724378531077145</v>
+        <v>0.0472437853107712</v>
       </c>
       <c r="E471" t="n">
+        <v>0.006874006391871016</v>
+      </c>
+      <c r="F471" t="n">
         <v>0.0007687983590252445</v>
       </c>
-      <c r="F471" t="n">
+      <c r="G471" t="n">
         <v>0.6445808029575707</v>
       </c>
     </row>
@@ -12702,12 +14117,15 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>-0.04157235864928139</v>
+        <v>-0.04157235864928137</v>
       </c>
       <c r="E472" t="n">
+        <v>0.01740132816982866</v>
+      </c>
+      <c r="F472" t="n">
         <v>-0.0003973147703509314</v>
       </c>
-      <c r="F472" t="n">
+      <c r="G472" t="n">
         <v>0.1725483219950282</v>
       </c>
     </row>
@@ -12728,12 +14146,15 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>-0.09079046879124607</v>
+        <v>-0.090790468791246</v>
       </c>
       <c r="E473" t="n">
+        <v>1.970452037731255e-07</v>
+      </c>
+      <c r="F473" t="n">
         <v>-0.0001051567740678211</v>
       </c>
-      <c r="F473" t="n">
+      <c r="G473" t="n">
         <v>0.01444408639309577</v>
       </c>
     </row>
@@ -12754,12 +14175,15 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>0.04589886608399732</v>
+        <v>0.04589886608399747</v>
       </c>
       <c r="E474" t="n">
+        <v>0.008643035524302496</v>
+      </c>
+      <c r="F474" t="n">
         <v>0.0003121379271796017</v>
       </c>
-      <c r="F474" t="n">
+      <c r="G474" t="n">
         <v>0.9220652092548901</v>
       </c>
     </row>
@@ -12780,12 +14204,15 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>0.07526802010037864</v>
+        <v>0.07526802010037904</v>
       </c>
       <c r="E475" t="n">
+        <v>1.65283185790481e-05</v>
+      </c>
+      <c r="F475" t="n">
         <v>0.0005220858439470228</v>
       </c>
-      <c r="F475" t="n">
+      <c r="G475" t="n">
         <v>0.9207103232495165</v>
       </c>
     </row>
@@ -12806,12 +14233,15 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>0.02297534428802464</v>
+        <v>0.02297534428802477</v>
       </c>
       <c r="E476" t="n">
+        <v>0.1891529214061056</v>
+      </c>
+      <c r="F476" t="n">
         <v>8.831280044354229e-05</v>
       </c>
-      <c r="F476" t="n">
+      <c r="G476" t="n">
         <v>0.03335021880128797</v>
       </c>
     </row>
@@ -12832,12 +14262,15 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>-0.1647808314729641</v>
+        <v>-0.1647808314729637</v>
       </c>
       <c r="E477" t="n">
+        <v>6.475162205638355e-21</v>
+      </c>
+      <c r="F477" t="n">
         <v>-0.001905183651959076</v>
       </c>
-      <c r="F477" t="n">
+      <c r="G477" t="n">
         <v>0.2755510883659361</v>
       </c>
     </row>
@@ -12858,12 +14291,15 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>0.01055859345395448</v>
+        <v>0.01055859345395431</v>
       </c>
       <c r="E478" t="n">
+        <v>0.5967694369629778</v>
+      </c>
+      <c r="F478" t="n">
         <v>3.439912930217381e-05</v>
       </c>
-      <c r="F478" t="n">
+      <c r="G478" t="n">
         <v>0.03051870671604545</v>
       </c>
     </row>
@@ -12884,12 +14320,15 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>-0.1611162962934032</v>
+        <v>-0.1611162962934023</v>
       </c>
       <c r="E479" t="n">
+        <v>5.449029211739418e-20</v>
+      </c>
+      <c r="F479" t="n">
         <v>-0.003728510172713431</v>
       </c>
-      <c r="F479" t="n">
+      <c r="G479" t="n">
         <v>0.6453450136101426</v>
       </c>
     </row>
@@ -12910,12 +14349,15 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>-0.06104782389141611</v>
+        <v>-0.06104782389141644</v>
       </c>
       <c r="E480" t="n">
+        <v>0.0005497622183356075</v>
+      </c>
+      <c r="F480" t="n">
         <v>-0.001610583519775851</v>
       </c>
-      <c r="F480" t="n">
+      <c r="G480" t="n">
         <v>0.4804317753727442</v>
       </c>
     </row>
@@ -12936,12 +14378,15 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>-0.07407243033823976</v>
+        <v>-0.07407243033823968</v>
       </c>
       <c r="E481" t="n">
+        <v>2.825735070474341e-05</v>
+      </c>
+      <c r="F481" t="n">
         <v>-0.00045393633093509</v>
       </c>
-      <c r="F481" t="n">
+      <c r="G481" t="n">
         <v>0.06147824652008382</v>
       </c>
     </row>
@@ -12962,12 +14407,15 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>-0.1579008999330954</v>
+        <v>-0.1579008999330957</v>
       </c>
       <c r="E482" t="n">
+        <v>2.583715197901095e-19</v>
+      </c>
+      <c r="F482" t="n">
         <v>-0.00769949909505144</v>
       </c>
-      <c r="F482" t="n">
+      <c r="G482" t="n">
         <v>1.523100363655495</v>
       </c>
     </row>
@@ -12988,12 +14436,15 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>-0.2335588769821938</v>
+        <v>-0.2335588769821914</v>
       </c>
       <c r="E483" t="n">
+        <v>7.273518459568197e-41</v>
+      </c>
+      <c r="F483" t="n">
         <v>-0.0003596366057606735</v>
       </c>
-      <c r="F483" t="n">
+      <c r="G483" t="n">
         <v>0.04031415696907791</v>
       </c>
     </row>
@@ -13014,12 +14465,15 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>-0.1808801062442313</v>
+        <v>-0.1808801062442293</v>
       </c>
       <c r="E484" t="n">
+        <v>6.452339507636114e-25</v>
+      </c>
+      <c r="F484" t="n">
         <v>-0.0002924901897968887</v>
       </c>
-      <c r="F484" t="n">
+      <c r="G484" t="n">
         <v>0.0362355729892067</v>
       </c>
     </row>
@@ -13040,12 +14494,15 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>-0.2439738741964743</v>
+        <v>-0.2439738741964749</v>
       </c>
       <c r="E485" t="n">
+        <v>1.953818888224399e-44</v>
+      </c>
+      <c r="F485" t="n">
         <v>-0.001733693933448868</v>
       </c>
-      <c r="F485" t="n">
+      <c r="G485" t="n">
         <v>0.1866894027601357</v>
       </c>
     </row>
@@ -13066,12 +14523,15 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>-0.07171703314602385</v>
+        <v>-0.07171703314602373</v>
       </c>
       <c r="E486" t="n">
+        <v>5.043938565005263e-05</v>
+      </c>
+      <c r="F486" t="n">
         <v>-0.002160533868801448</v>
       </c>
-      <c r="F486" t="n">
+      <c r="G486" t="n">
         <v>0.551026232957752</v>
       </c>
     </row>
@@ -13092,12 +14552,15 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>-0.1533446020368616</v>
+        <v>-0.1533446020368617</v>
       </c>
       <c r="E487" t="n">
+        <v>2.715808057784615e-18</v>
+      </c>
+      <c r="F487" t="n">
         <v>-0.009675889796210358</v>
       </c>
-      <c r="F487" t="n">
+      <c r="G487" t="n">
         <v>2.127542053848844</v>
       </c>
     </row>
@@ -13118,12 +14581,15 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>-0.1509253813042773</v>
+        <v>-0.1509253813042763</v>
       </c>
       <c r="E488" t="n">
+        <v>9.530676261176342e-18</v>
+      </c>
+      <c r="F488" t="n">
         <v>-0.001308902363266823</v>
       </c>
-      <c r="F488" t="n">
+      <c r="G488" t="n">
         <v>0.1847393298736678</v>
       </c>
     </row>
@@ -13144,12 +14610,15 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>-0.1572383993550184</v>
+        <v>-0.1572383993550206</v>
       </c>
       <c r="E489" t="n">
+        <v>1.543752581734531e-19</v>
+      </c>
+      <c r="F489" t="n">
         <v>-0.0006529473618474893</v>
       </c>
-      <c r="F489" t="n">
+      <c r="G489" t="n">
         <v>0.1122460112749956</v>
       </c>
     </row>
@@ -13170,12 +14639,15 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>0.0626796108779786</v>
+        <v>0.06267961087797892</v>
       </c>
       <c r="E490" t="n">
+        <v>0.0003366600077237339</v>
+      </c>
+      <c r="F490" t="n">
         <v>0.0007819203337319996</v>
       </c>
-      <c r="F490" t="n">
+      <c r="G490" t="n">
         <v>0.2006180439832718</v>
       </c>
     </row>
@@ -13196,12 +14668,15 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>-0.07950192420338831</v>
+        <v>-0.07950192420338947</v>
       </c>
       <c r="E491" t="n">
+        <v>5.356806049504471e-06</v>
+      </c>
+      <c r="F491" t="n">
         <v>-0.001157462570344203</v>
       </c>
-      <c r="F491" t="n">
+      <c r="G491" t="n">
         <v>0.7556777778510899</v>
       </c>
     </row>
@@ -13222,12 +14697,15 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>-0.1044554318182602</v>
+        <v>-0.1044554318182621</v>
       </c>
       <c r="E492" t="n">
+        <v>2.158077633715233e-09</v>
+      </c>
+      <c r="F492" t="n">
         <v>-0.00147596489874786</v>
       </c>
-      <c r="F492" t="n">
+      <c r="G492" t="n">
         <v>0.7987887177383842</v>
       </c>
     </row>
@@ -13248,12 +14726,15 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>-0.02565573011874763</v>
+        <v>-0.02565573011874722</v>
       </c>
       <c r="E493" t="n">
+        <v>0.1427428755391481</v>
+      </c>
+      <c r="F493" t="n">
         <v>-0.0004110425279582827</v>
       </c>
-      <c r="F493" t="n">
+      <c r="G493" t="n">
         <v>0.6673766736394806</v>
       </c>
     </row>
@@ -13274,12 +14755,15 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>0.07688676581525648</v>
+        <v>0.07688676581525683</v>
       </c>
       <c r="E494" t="n">
+        <v>1.3443595884231e-05</v>
+      </c>
+      <c r="F494" t="n">
         <v>0.0002592361569767994</v>
       </c>
-      <c r="F494" t="n">
+      <c r="G494" t="n">
         <v>0.02153092783099477</v>
       </c>
     </row>
@@ -13300,12 +14784,15 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>0.08804758396106413</v>
+        <v>0.08804758396106459</v>
       </c>
       <c r="E495" t="n">
+        <v>6.135341585987577e-07</v>
+      </c>
+      <c r="F495" t="n">
         <v>0.0001924729409069397</v>
       </c>
-      <c r="F495" t="n">
+      <c r="G495" t="n">
         <v>0.01295442946937731</v>
       </c>
     </row>
@@ -13326,12 +14813,15 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>0.02786587618563765</v>
+        <v>0.02786587618563771</v>
       </c>
       <c r="E496" t="n">
+        <v>0.1151343457112649</v>
+      </c>
+      <c r="F496" t="n">
         <v>1.851943186681464e-05</v>
       </c>
-      <c r="F496" t="n">
+      <c r="G496" t="n">
         <v>0.006420945025785897</v>
       </c>
     </row>
@@ -13352,12 +14842,15 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>0.01907214014644169</v>
+        <v>0.01907214014644167</v>
       </c>
       <c r="E497" t="n">
+        <v>0.3642677027986468</v>
+      </c>
+      <c r="F497" t="n">
         <v>0.002620825881567665</v>
       </c>
-      <c r="F497" t="n">
+      <c r="G497" t="n">
         <v>5.895454347352733</v>
       </c>
     </row>
@@ -13378,12 +14871,15 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>-0.04316018931803976</v>
+        <v>-0.04316018931803937</v>
       </c>
       <c r="E498" t="n">
+        <v>0.0304001690221857</v>
+      </c>
+      <c r="F498" t="n">
         <v>-0.07967092553141214</v>
       </c>
-      <c r="F498" t="n">
+      <c r="G498" t="n">
         <v>55.55974405084869</v>
       </c>
     </row>
@@ -13404,12 +14900,15 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>-0.1435335484419478</v>
+        <v>-0.1435335484419499</v>
       </c>
       <c r="E499" t="n">
+        <v>3.848068238451403e-13</v>
+      </c>
+      <c r="F499" t="n">
         <v>-0.7149407996435763</v>
       </c>
-      <c r="F499" t="n">
+      <c r="G499" t="n">
         <v>230.4986564064998</v>
       </c>
     </row>
@@ -13430,12 +14929,15 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>0.008031526147875749</v>
+        <v>0.008031526147876016</v>
       </c>
       <c r="E500" t="n">
+        <v>0.6853737898198576</v>
+      </c>
+      <c r="F500" t="n">
         <v>0.00380498857202369</v>
       </c>
-      <c r="F500" t="n">
+      <c r="G500" t="n">
         <v>3.66441103497511</v>
       </c>
     </row>
@@ -13456,12 +14958,15 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>0.2624416724973869</v>
+        <v>0.2624416724973878</v>
       </c>
       <c r="E501" t="n">
+        <v>2.187934869707488e-41</v>
+      </c>
+      <c r="F501" t="n">
         <v>0.01298527655214704</v>
       </c>
-      <c r="F501" t="n">
+      <c r="G501" t="n">
         <v>0.2576589677595116</v>
       </c>
     </row>
